--- a/Manuscript nargab/Supp Data S6 - Revised.xlsx
+++ b/Manuscript nargab/Supp Data S6 - Revised.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08c57fc6d61e3c24/Travail (2019 - 2020)/Ecriture/Article CGLAB/NAR Genomics and Bioinformatics/Revisions/Lettre de reponse/Séance de travail (10) (le 16 février 2020)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glela\OneDrive\Travail (2019 - 2020)\Ecriture\Article CGLAB\NAR Genomics and Bioinformatics\Revisions\Lettre de reponse\Séance de travail (10) (le 16 février 2020)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E025A46-E14B-4D76-8368-B28F5A325238}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{5E025A46-E14B-4D76-8368-B28F5A325238}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1DA68D6B-4472-4235-ACDD-B83BA0ACED57}"/>
   <bookViews>
-    <workbookView xWindow="1785" yWindow="2385" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orthologous genes" sheetId="1" r:id="rId1"/>
@@ -4021,18 +4021,12 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE06666"/>
-        <bgColor rgb="FFE06666"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -4047,19 +4041,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4277,25 +4268,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="6" width="25.5703125" customWidth="1"/>
-    <col min="9" max="9" width="28.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="1" max="2" width="15" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.1328125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12" style="4" customWidth="1"/>
+    <col min="5" max="6" width="25.59765625" style="4" customWidth="1"/>
+    <col min="7" max="8" width="14.3984375" style="4"/>
+    <col min="9" max="9" width="28.3984375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="16.73046875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="14" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="14.3984375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4328,7 +4323,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>10</v>
@@ -4361,34 +4356,34 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+    <row r="3" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H3" s="5"/>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="4" t="s">
+      <c r="J3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L3" s="5"/>
@@ -4409,7 +4404,7 @@
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
     </row>
-    <row r="4" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>22</v>
@@ -4439,7 +4434,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>29</v>
@@ -4472,7 +4467,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>37</v>
@@ -4502,7 +4497,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>43</v>
@@ -4532,7 +4527,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>48</v>
@@ -4562,7 +4557,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>55</v>
@@ -4592,7 +4587,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>62</v>
@@ -4619,7 +4614,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>67</v>
@@ -4649,7 +4644,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>73</v>
@@ -4682,7 +4677,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>80</v>
@@ -4715,7 +4710,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>87</v>
@@ -4748,7 +4743,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>94</v>
@@ -4778,7 +4773,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>101</v>
@@ -4808,7 +4803,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>107</v>
@@ -4841,7 +4836,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>114</v>
@@ -4871,7 +4866,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>120</v>
@@ -4904,7 +4899,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>127</v>
@@ -4934,7 +4929,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>134</v>
@@ -4967,7 +4962,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>138</v>
@@ -4997,7 +4992,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>144</v>
@@ -5027,7 +5022,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>151</v>
@@ -5057,7 +5052,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>158</v>
@@ -5087,7 +5082,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>164</v>
@@ -5114,7 +5109,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>169</v>
@@ -5144,7 +5139,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>175</v>
@@ -5174,7 +5169,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>182</v>
@@ -5204,7 +5199,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>187</v>
@@ -5237,7 +5232,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>190</v>
@@ -5270,7 +5265,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>197</v>
@@ -5300,7 +5295,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>204</v>
@@ -5330,7 +5325,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
         <v>211</v>
@@ -5363,7 +5358,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>218</v>
@@ -5396,7 +5391,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
         <v>225</v>
@@ -5426,7 +5421,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
         <v>232</v>
@@ -5456,7 +5451,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
         <v>240</v>
@@ -5486,7 +5481,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
         <v>246</v>
@@ -5516,7 +5511,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
         <v>252</v>
@@ -5546,7 +5541,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
         <v>259</v>
@@ -5576,7 +5571,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
         <v>265</v>
@@ -5609,7 +5604,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
         <v>272</v>
@@ -5642,7 +5637,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
         <v>279</v>
@@ -5669,34 +5664,34 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
+    <row r="45" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
         <v>2</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D45" s="5"/>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="G45" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H45" s="5"/>
-      <c r="I45" s="6" t="s">
+      <c r="I45" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="J45" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K45" s="4" t="s">
+      <c r="J45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K45" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L45" s="5"/>
@@ -5717,7 +5712,7 @@
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
     </row>
-    <row r="46" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
         <v>286</v>
@@ -5750,7 +5745,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
         <v>293</v>
@@ -5780,7 +5775,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="48" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
         <v>300</v>
@@ -5807,7 +5802,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
         <v>306</v>
@@ -5837,7 +5832,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
         <v>313</v>
@@ -5867,7 +5862,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
         <v>320</v>
@@ -5897,7 +5892,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
         <v>326</v>
@@ -5927,7 +5922,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
         <v>333</v>
@@ -5960,7 +5955,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
         <v>339</v>
@@ -5990,7 +5985,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
         <v>346</v>
@@ -6020,7 +6015,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
         <v>352</v>
@@ -6053,7 +6048,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
         <v>359</v>
@@ -6083,7 +6078,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
         <v>366</v>
@@ -6116,7 +6111,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
         <v>372</v>
@@ -6149,7 +6144,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
         <v>379</v>
@@ -6182,7 +6177,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
         <v>386</v>
@@ -6215,7 +6210,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
         <v>393</v>
@@ -6245,7 +6240,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
         <v>400</v>
@@ -6272,7 +6267,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
         <v>406</v>
@@ -6302,7 +6297,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
         <v>413</v>
@@ -6332,7 +6327,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
         <v>420</v>
@@ -6362,7 +6357,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
         <v>426</v>
@@ -6392,7 +6387,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
         <v>432</v>
@@ -6422,7 +6417,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
         <v>439</v>
@@ -6452,7 +6447,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
         <v>446</v>
@@ -6482,7 +6477,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
         <v>453</v>
@@ -6512,7 +6507,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
         <v>459</v>
@@ -6545,7 +6540,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
         <v>466</v>
@@ -6575,7 +6570,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
         <v>472</v>
@@ -6605,7 +6600,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
         <v>478</v>
@@ -6635,7 +6630,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="1" t="s">
         <v>482</v>
@@ -6665,7 +6660,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="1" t="s">
         <v>487</v>
@@ -6695,7 +6690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="1" t="s">
         <v>493</v>
@@ -6728,7 +6723,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
         <v>500</v>
@@ -6761,7 +6756,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="1" t="s">
         <v>507</v>
@@ -6791,7 +6786,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
         <v>513</v>
@@ -6824,7 +6819,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="1" t="s">
         <v>520</v>
@@ -6854,7 +6849,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="1" t="s">
         <v>527</v>
@@ -6887,7 +6882,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="1" t="s">
         <v>534</v>
@@ -6917,7 +6912,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
       <c r="B85" s="1" t="s">
         <v>540</v>
@@ -6947,7 +6942,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="B86" s="1" t="s">
         <v>547</v>
@@ -6977,7 +6972,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="B87" s="1" t="s">
         <v>553</v>
@@ -7007,7 +7002,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
       <c r="B88" s="1" t="s">
         <v>559</v>
@@ -7040,7 +7035,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
       <c r="B89" s="1" t="s">
         <v>566</v>
@@ -7067,7 +7062,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
       <c r="B90" s="1" t="s">
         <v>572</v>
@@ -7097,7 +7092,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
       <c r="B91" s="1" t="s">
         <v>578</v>
@@ -7127,7 +7122,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
       <c r="B92" s="1" t="s">
         <v>584</v>
@@ -7157,7 +7152,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
       <c r="B93" s="1" t="s">
         <v>590</v>
@@ -7190,7 +7185,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
       <c r="B94" s="1" t="s">
         <v>597</v>
@@ -7223,7 +7218,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
       <c r="B95" s="1" t="s">
         <v>604</v>
@@ -7253,7 +7248,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
       <c r="B96" s="1" t="s">
         <v>609</v>
@@ -7280,7 +7275,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
       <c r="B97" s="1" t="s">
         <v>612</v>
@@ -7310,7 +7305,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1"/>
       <c r="B98" s="1" t="s">
         <v>619</v>
@@ -7343,7 +7338,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1"/>
       <c r="B99" s="1" t="s">
         <v>626</v>
@@ -7373,7 +7368,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
       <c r="B100" s="1" t="s">
         <v>633</v>
@@ -7403,7 +7398,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
       <c r="B101" s="1" t="s">
         <v>641</v>
@@ -7433,7 +7428,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1"/>
       <c r="B102" s="1" t="s">
         <v>648</v>
@@ -7460,7 +7455,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1"/>
       <c r="B103" s="1" t="s">
         <v>653</v>
@@ -7487,7 +7482,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1"/>
       <c r="B104" s="1" t="s">
         <v>656</v>
@@ -7517,7 +7512,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1"/>
       <c r="B105" s="1" t="s">
         <v>660</v>
@@ -7547,7 +7542,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
       <c r="B106" s="1" t="s">
         <v>667</v>
@@ -7577,7 +7572,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="1" t="s">
         <v>673</v>
@@ -7604,7 +7599,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
       <c r="B108" s="1" t="s">
         <v>675</v>
@@ -7634,7 +7629,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1"/>
       <c r="B109" s="1" t="s">
         <v>683</v>
@@ -7667,7 +7662,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1"/>
       <c r="B110" s="1" t="s">
         <v>690</v>
@@ -7694,7 +7689,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" s="1" t="s">
         <v>696</v>
@@ -7727,7 +7722,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1"/>
       <c r="B112" s="1" t="s">
         <v>703</v>
@@ -7760,7 +7755,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1"/>
       <c r="B113" s="1" t="s">
         <v>710</v>
@@ -7793,7 +7788,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1"/>
       <c r="B114" s="1" t="s">
         <v>716</v>
@@ -7823,7 +7818,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1"/>
       <c r="B115" s="1" t="s">
         <v>723</v>
@@ -7853,7 +7848,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1"/>
       <c r="B116" s="1" t="s">
         <v>730</v>
@@ -7880,7 +7875,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1"/>
       <c r="B117" s="1" t="s">
         <v>733</v>
@@ -7907,7 +7902,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1"/>
       <c r="B118" s="1" t="s">
         <v>738</v>
@@ -7940,7 +7935,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1"/>
       <c r="B119" s="1" t="s">
         <v>745</v>
@@ -7970,7 +7965,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1"/>
       <c r="B120" s="1" t="s">
         <v>752</v>
@@ -8000,7 +7995,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1"/>
       <c r="B121" s="1" t="s">
         <v>759</v>
@@ -8027,7 +8022,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1"/>
       <c r="B122" s="1" t="s">
         <v>764</v>
@@ -8057,7 +8052,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1"/>
       <c r="B123" s="1" t="s">
         <v>771</v>
@@ -8090,7 +8085,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1"/>
       <c r="B124" s="1" t="s">
         <v>778</v>
@@ -8120,7 +8115,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1"/>
       <c r="B125" s="1" t="s">
         <v>783</v>
@@ -8153,7 +8148,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1"/>
       <c r="B126" s="1" t="s">
         <v>790</v>
@@ -8183,7 +8178,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1"/>
       <c r="B127" s="1" t="s">
         <v>796</v>
@@ -8213,7 +8208,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1"/>
       <c r="B128" s="1" t="s">
         <v>803</v>
@@ -8243,7 +8238,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1"/>
       <c r="B129" s="1" t="s">
         <v>810</v>
@@ -8273,7 +8268,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1"/>
       <c r="B130" s="1" t="s">
         <v>817</v>
@@ -8300,7 +8295,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1"/>
       <c r="B131" s="1" t="s">
         <v>823</v>
@@ -8330,7 +8325,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1"/>
       <c r="B132" s="1" t="s">
         <v>829</v>
@@ -8363,7 +8358,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1"/>
       <c r="B133" s="1" t="s">
         <v>836</v>
@@ -8393,7 +8388,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1"/>
       <c r="B134" s="1" t="s">
         <v>841</v>
@@ -8420,7 +8415,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1"/>
       <c r="B135" s="1" t="s">
         <v>844</v>
@@ -8450,7 +8445,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1"/>
       <c r="B136" s="1" t="s">
         <v>851</v>
@@ -8477,7 +8472,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1"/>
       <c r="B137" s="1" t="s">
         <v>856</v>
@@ -8507,7 +8502,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1"/>
       <c r="B138" s="1" t="s">
         <v>863</v>
@@ -8540,7 +8535,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1"/>
       <c r="B139" s="1" t="s">
         <v>871</v>
@@ -8570,7 +8565,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1"/>
       <c r="B140" s="1" t="s">
         <v>876</v>
@@ -8603,7 +8598,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1"/>
       <c r="B141" s="1" t="s">
         <v>882</v>
@@ -8633,7 +8628,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="1"/>
       <c r="B142" s="1" t="s">
         <v>888</v>
@@ -8666,7 +8661,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="1"/>
       <c r="B143" s="1" t="s">
         <v>895</v>
@@ -8696,7 +8691,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1"/>
       <c r="B144" s="1" t="s">
         <v>901</v>
@@ -8726,7 +8721,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="145" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="1"/>
       <c r="B145" s="1" t="s">
         <v>908</v>
@@ -8756,7 +8751,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="1"/>
       <c r="B146" s="1" t="s">
         <v>914</v>
@@ -8786,34 +8781,34 @@
         <v>920</v>
       </c>
     </row>
-    <row r="147" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="4">
+    <row r="147" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="2">
         <v>3</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="B147" s="2" t="s">
         <v>921</v>
       </c>
-      <c r="C147" s="4" t="s">
+      <c r="C147" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D147" s="5"/>
-      <c r="E147" s="6" t="s">
+      <c r="E147" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F147" s="4" t="s">
+      <c r="F147" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G147" s="4" t="s">
+      <c r="G147" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H147" s="5"/>
-      <c r="I147" s="6" t="s">
+      <c r="I147" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J147" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K147" s="4" t="s">
+      <c r="J147" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K147" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L147" s="5"/>
@@ -8834,7 +8829,7 @@
       <c r="AA147" s="5"/>
       <c r="AB147" s="5"/>
     </row>
-    <row r="148" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="1"/>
       <c r="B148" s="1" t="s">
         <v>922</v>
@@ -8864,7 +8859,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="1"/>
       <c r="B149" s="1" t="s">
         <v>928</v>
@@ -8894,7 +8889,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="150" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1"/>
       <c r="B150" s="1" t="s">
         <v>934</v>
@@ -8927,7 +8922,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="151" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1"/>
       <c r="B151" s="1" t="s">
         <v>941</v>
@@ -8960,7 +8955,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="152" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="1"/>
       <c r="B152" s="1" t="s">
         <v>947</v>
@@ -8987,7 +8982,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="153" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="1"/>
       <c r="B153" s="1" t="s">
         <v>953</v>
@@ -9020,7 +9015,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="154" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1"/>
       <c r="B154" s="1" t="s">
         <v>960</v>
@@ -9053,34 +9048,34 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="4">
+    <row r="155" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="2">
         <v>4</v>
       </c>
-      <c r="B155" s="4" t="s">
+      <c r="B155" s="2" t="s">
         <v>967</v>
       </c>
-      <c r="C155" s="4" t="s">
+      <c r="C155" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D155" s="5"/>
-      <c r="E155" s="6" t="s">
+      <c r="E155" s="3" t="s">
         <v>968</v>
       </c>
-      <c r="F155" s="4" t="s">
+      <c r="F155" s="2" t="s">
         <v>969</v>
       </c>
-      <c r="G155" s="4" t="s">
+      <c r="G155" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H155" s="5"/>
-      <c r="I155" s="6" t="s">
+      <c r="I155" s="3" t="s">
         <v>968</v>
       </c>
-      <c r="J155" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K155" s="4" t="s">
+      <c r="J155" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K155" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L155" s="5"/>
@@ -9101,7 +9096,7 @@
       <c r="AA155" s="5"/>
       <c r="AB155" s="5"/>
     </row>
-    <row r="156" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="1"/>
       <c r="B156" s="1" t="s">
         <v>970</v>
@@ -9131,7 +9126,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="157" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1"/>
       <c r="B157" s="1" t="s">
         <v>977</v>
@@ -9161,34 +9156,34 @@
         <v>983</v>
       </c>
     </row>
-    <row r="158" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="4">
+    <row r="158" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="2">
         <v>5</v>
       </c>
-      <c r="B158" s="4" t="s">
+      <c r="B158" s="2" t="s">
         <v>984</v>
       </c>
-      <c r="C158" s="4" t="s">
+      <c r="C158" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D158" s="5"/>
-      <c r="E158" s="6" t="s">
+      <c r="E158" s="3" t="s">
         <v>985</v>
       </c>
-      <c r="F158" s="4" t="s">
+      <c r="F158" s="2" t="s">
         <v>986</v>
       </c>
-      <c r="G158" s="4" t="s">
+      <c r="G158" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H158" s="5"/>
-      <c r="I158" s="6" t="s">
+      <c r="I158" s="3" t="s">
         <v>985</v>
       </c>
-      <c r="J158" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K158" s="4" t="s">
+      <c r="J158" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K158" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L158" s="5"/>
@@ -9209,7 +9204,7 @@
       <c r="AA158" s="5"/>
       <c r="AB158" s="5"/>
     </row>
-    <row r="159" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1"/>
       <c r="B159" s="1" t="s">
         <v>987</v>
@@ -9239,7 +9234,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="160" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1"/>
       <c r="B160" s="1" t="s">
         <v>994</v>
@@ -9269,7 +9264,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="161" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1"/>
       <c r="B161" s="1" t="s">
         <v>1001</v>
@@ -9299,7 +9294,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="162" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1"/>
       <c r="B162" s="1" t="s">
         <v>1007</v>
@@ -9332,7 +9327,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1"/>
       <c r="B163" s="1" t="s">
         <v>1013</v>
@@ -9365,34 +9360,34 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="164" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="4">
+    <row r="164" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="2">
         <v>6</v>
       </c>
-      <c r="B164" s="4" t="s">
+      <c r="B164" s="2" t="s">
         <v>1021</v>
       </c>
-      <c r="C164" s="4" t="s">
+      <c r="C164" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D164" s="5"/>
-      <c r="E164" s="6" t="s">
+      <c r="E164" s="3" t="s">
         <v>1022</v>
       </c>
-      <c r="F164" s="4" t="s">
+      <c r="F164" s="2" t="s">
         <v>1023</v>
       </c>
-      <c r="G164" s="4" t="s">
+      <c r="G164" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H164" s="5"/>
-      <c r="I164" s="6" t="s">
+      <c r="I164" s="3" t="s">
         <v>1022</v>
       </c>
-      <c r="J164" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K164" s="4" t="s">
+      <c r="J164" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K164" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L164" s="5"/>
@@ -9413,7 +9408,7 @@
       <c r="AA164" s="5"/>
       <c r="AB164" s="5"/>
     </row>
-    <row r="165" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1"/>
       <c r="B165" s="1" t="s">
         <v>1024</v>
@@ -9443,38 +9438,38 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="166" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="4">
+    <row r="166" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="2">
         <v>7</v>
       </c>
-      <c r="B166" s="4" t="s">
+      <c r="B166" s="2" t="s">
         <v>1032</v>
       </c>
-      <c r="C166" s="4" t="s">
+      <c r="C166" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D166" s="4" t="s">
+      <c r="D166" s="2" t="s">
         <v>1033</v>
       </c>
-      <c r="E166" s="6" t="s">
+      <c r="E166" s="3" t="s">
         <v>1034</v>
       </c>
-      <c r="F166" s="4" t="s">
+      <c r="F166" s="2" t="s">
         <v>1035</v>
       </c>
-      <c r="G166" s="4" t="s">
+      <c r="G166" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H166" s="4" t="s">
+      <c r="H166" s="2" t="s">
         <v>1033</v>
       </c>
-      <c r="I166" s="6" t="s">
+      <c r="I166" s="3" t="s">
         <v>1034</v>
       </c>
-      <c r="J166" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K166" s="4" t="s">
+      <c r="J166" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K166" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L166" s="5"/>
@@ -9495,7 +9490,7 @@
       <c r="AA166" s="5"/>
       <c r="AB166" s="5"/>
     </row>
-    <row r="167" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1"/>
       <c r="B167" s="1" t="s">
         <v>1036</v>
@@ -9525,7 +9520,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="168" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1"/>
       <c r="B168" s="1" t="s">
         <v>1042</v>
@@ -9558,34 +9553,34 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="169" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="4">
+    <row r="169" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="2">
         <v>8</v>
       </c>
-      <c r="B169" s="4" t="s">
+      <c r="B169" s="2" t="s">
         <v>1049</v>
       </c>
-      <c r="C169" s="4" t="s">
+      <c r="C169" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D169" s="5"/>
-      <c r="E169" s="6" t="s">
+      <c r="E169" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F169" s="4" t="s">
+      <c r="F169" s="2" t="s">
         <v>1050</v>
       </c>
-      <c r="G169" s="4" t="s">
+      <c r="G169" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H169" s="5"/>
-      <c r="I169" s="6" t="s">
+      <c r="I169" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J169" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K169" s="4" t="s">
+      <c r="J169" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K169" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L169" s="5"/>
@@ -9606,7 +9601,7 @@
       <c r="AA169" s="5"/>
       <c r="AB169" s="5"/>
     </row>
-    <row r="170" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1"/>
       <c r="B170" s="1" t="s">
         <v>1051</v>
@@ -9636,7 +9631,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="171" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1"/>
       <c r="B171" s="1" t="s">
         <v>1056</v>
@@ -9669,7 +9664,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="172" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="1"/>
       <c r="B172" s="1" t="s">
         <v>1062</v>
@@ -9702,7 +9697,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="173" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="1"/>
       <c r="B173" s="1" t="s">
         <v>1069</v>
@@ -9732,7 +9727,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="174" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="1"/>
       <c r="B174" s="1" t="s">
         <v>1076</v>
@@ -9759,7 +9754,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="175" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="1"/>
       <c r="B175" s="1" t="s">
         <v>1082</v>
@@ -9792,7 +9787,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="176" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="1"/>
       <c r="B176" s="1" t="s">
         <v>1089</v>
@@ -9822,7 +9817,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="177" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="1"/>
       <c r="B177" s="1" t="s">
         <v>1096</v>
@@ -9852,7 +9847,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="178" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="1"/>
       <c r="B178" s="1" t="s">
         <v>1103</v>
@@ -9885,7 +9880,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="179" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="1"/>
       <c r="B179" s="1" t="s">
         <v>1109</v>
@@ -9915,7 +9910,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="180" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="1"/>
       <c r="B180" s="1" t="s">
         <v>1116</v>
@@ -9945,7 +9940,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="181" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="1"/>
       <c r="B181" s="1" t="s">
         <v>1122</v>
@@ -9975,7 +9970,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="182" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1"/>
       <c r="B182" s="1" t="s">
         <v>1129</v>
@@ -10008,7 +10003,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="183" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="1"/>
       <c r="B183" s="1" t="s">
         <v>1137</v>
@@ -10038,7 +10033,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="184" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="1"/>
       <c r="B184" s="1" t="s">
         <v>1144</v>
@@ -10068,7 +10063,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="185" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="1"/>
       <c r="B185" s="1" t="s">
         <v>1146</v>
@@ -10101,7 +10096,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="186" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="1"/>
       <c r="B186" s="1" t="s">
         <v>1153</v>
@@ -10131,7 +10126,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="187" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="1"/>
       <c r="B187" s="1" t="s">
         <v>1160</v>
@@ -10161,7 +10156,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="188" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1"/>
       <c r="B188" s="1" t="s">
         <v>1167</v>
@@ -10194,34 +10189,34 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="4">
+    <row r="189" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="2">
         <v>9</v>
       </c>
-      <c r="B189" s="4" t="s">
+      <c r="B189" s="2" t="s">
         <v>1173</v>
       </c>
-      <c r="C189" s="4" t="s">
+      <c r="C189" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D189" s="5"/>
-      <c r="E189" s="6" t="s">
+      <c r="E189" s="3" t="s">
         <v>1174</v>
       </c>
-      <c r="F189" s="4" t="s">
+      <c r="F189" s="2" t="s">
         <v>1175</v>
       </c>
-      <c r="G189" s="4" t="s">
+      <c r="G189" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H189" s="5"/>
-      <c r="I189" s="6" t="s">
+      <c r="I189" s="3" t="s">
         <v>1176</v>
       </c>
-      <c r="J189" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K189" s="4" t="s">
+      <c r="J189" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K189" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L189" s="5"/>
@@ -10242,34 +10237,34 @@
       <c r="AA189" s="5"/>
       <c r="AB189" s="5"/>
     </row>
-    <row r="190" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="4">
+    <row r="190" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="2">
         <v>10</v>
       </c>
-      <c r="B190" s="4" t="s">
+      <c r="B190" s="2" t="s">
         <v>1177</v>
       </c>
-      <c r="C190" s="4" t="s">
+      <c r="C190" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D190" s="5"/>
-      <c r="E190" s="6" t="s">
+      <c r="E190" s="3" t="s">
         <v>1178</v>
       </c>
-      <c r="F190" s="4" t="s">
+      <c r="F190" s="2" t="s">
         <v>1179</v>
       </c>
-      <c r="G190" s="4" t="s">
+      <c r="G190" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H190" s="5"/>
-      <c r="I190" s="6" t="s">
+      <c r="I190" s="3" t="s">
         <v>1178</v>
       </c>
-      <c r="J190" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K190" s="4" t="s">
+      <c r="J190" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K190" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L190" s="5"/>
@@ -10290,7 +10285,7 @@
       <c r="AA190" s="5"/>
       <c r="AB190" s="5"/>
     </row>
-    <row r="191" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="1"/>
       <c r="B191" s="1" t="s">
         <v>1180</v>
@@ -10320,7 +10315,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="192" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="1"/>
       <c r="B192" s="1" t="s">
         <v>1186</v>
@@ -10347,7 +10342,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="193" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="1"/>
       <c r="B193" s="1" t="s">
         <v>1189</v>
@@ -10377,7 +10372,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="194" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="1"/>
       <c r="B194" s="1" t="s">
         <v>1195</v>
@@ -10407,7 +10402,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="195" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="1"/>
       <c r="B195" s="1" t="s">
         <v>1202</v>
@@ -10437,7 +10432,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="196" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="1"/>
       <c r="B196" s="1" t="s">
         <v>1208</v>
@@ -10467,7 +10462,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="197" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="1"/>
       <c r="B197" s="1" t="s">
         <v>1214</v>
@@ -10500,7 +10495,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="198" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="1"/>
       <c r="B198" s="1" t="s">
         <v>1221</v>
@@ -10530,7 +10525,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="199" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="1"/>
       <c r="B199" s="1" t="s">
         <v>1228</v>
@@ -10563,7 +10558,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="200" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="1"/>
       <c r="B200" s="1" t="s">
         <v>1232</v>
@@ -10590,7 +10585,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="201" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="1"/>
       <c r="B201" s="1" t="s">
         <v>1236</v>
@@ -10620,7 +10615,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="202" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="1"/>
       <c r="B202" s="1" t="s">
         <v>1242</v>
@@ -10650,7 +10645,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="203" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="1"/>
       <c r="B203" s="1" t="s">
         <v>1249</v>
@@ -10680,7 +10675,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="204" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="1"/>
       <c r="B204" s="1" t="s">
         <v>1255</v>
@@ -10710,7 +10705,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="205" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="1"/>
       <c r="B205" s="1" t="s">
         <v>1261</v>
@@ -10740,7 +10735,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="206" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="1"/>
       <c r="B206" s="1" t="s">
         <v>1267</v>
@@ -10770,7 +10765,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="207" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="1"/>
       <c r="B207" s="1" t="s">
         <v>1273</v>
@@ -10800,38 +10795,38 @@
         <v>17</v>
       </c>
     </row>
-    <row r="208" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="4">
+    <row r="208" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A208" s="2">
         <v>11</v>
       </c>
-      <c r="B208" s="4" t="s">
+      <c r="B208" s="2" t="s">
         <v>1278</v>
       </c>
-      <c r="C208" s="4" t="s">
+      <c r="C208" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D208" s="4" t="s">
+      <c r="D208" s="2" t="s">
         <v>1279</v>
       </c>
-      <c r="E208" s="6" t="s">
+      <c r="E208" s="3" t="s">
         <v>1280</v>
       </c>
-      <c r="F208" s="4" t="s">
+      <c r="F208" s="2" t="s">
         <v>1281</v>
       </c>
-      <c r="G208" s="4" t="s">
+      <c r="G208" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H208" s="4" t="s">
+      <c r="H208" s="2" t="s">
         <v>1279</v>
       </c>
-      <c r="I208" s="6" t="s">
+      <c r="I208" s="3" t="s">
         <v>1280</v>
       </c>
-      <c r="J208" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K208" s="4" t="s">
+      <c r="J208" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K208" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L208" s="5"/>
@@ -10852,38 +10847,38 @@
       <c r="AA208" s="5"/>
       <c r="AB208" s="5"/>
     </row>
-    <row r="209" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="4">
+    <row r="209" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A209" s="2">
         <v>12</v>
       </c>
-      <c r="B209" s="4" t="s">
+      <c r="B209" s="2" t="s">
         <v>1282</v>
       </c>
-      <c r="C209" s="4" t="s">
+      <c r="C209" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D209" s="4" t="s">
+      <c r="D209" s="2" t="s">
         <v>1283</v>
       </c>
-      <c r="E209" s="6" t="s">
+      <c r="E209" s="3" t="s">
         <v>1284</v>
       </c>
-      <c r="F209" s="4" t="s">
+      <c r="F209" s="2" t="s">
         <v>1285</v>
       </c>
-      <c r="G209" s="4" t="s">
+      <c r="G209" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H209" s="4" t="s">
+      <c r="H209" s="2" t="s">
         <v>1283</v>
       </c>
-      <c r="I209" s="6" t="s">
+      <c r="I209" s="3" t="s">
         <v>1284</v>
       </c>
-      <c r="J209" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K209" s="4" t="s">
+      <c r="J209" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K209" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L209" s="5"/>
@@ -10904,7 +10899,7 @@
       <c r="AA209" s="5"/>
       <c r="AB209" s="5"/>
     </row>
-    <row r="210" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="1"/>
       <c r="B210" s="1" t="s">
         <v>1286</v>
@@ -10934,7 +10929,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="211" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="1"/>
       <c r="B211" s="1" t="s">
         <v>1293</v>
@@ -10964,7 +10959,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="212" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="1"/>
       <c r="B212" s="1" t="s">
         <v>1299</v>
@@ -10994,7 +10989,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="213" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="1"/>
       <c r="B213" s="1" t="s">
         <v>1305</v>
@@ -11024,7 +11019,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="214" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="1"/>
       <c r="B214" s="1" t="s">
         <v>1312</v>
@@ -11054,7 +11049,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="215" spans="1:28" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="1"/>
       <c r="B215" s="1" t="s">
         <v>1318</v>
@@ -11084,3159 +11079,3148 @@
         <v>17</v>
       </c>
     </row>
-    <row r="216" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E216" s="7"/>
-      <c r="I216" s="7"/>
-    </row>
-    <row r="217" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E217" s="7"/>
-      <c r="I217" s="7"/>
-    </row>
-    <row r="218" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E218" s="7"/>
-      <c r="I218" s="7"/>
-    </row>
-    <row r="219" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E219" s="7"/>
-      <c r="I219" s="7"/>
-    </row>
-    <row r="220" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E220" s="7"/>
-      <c r="I220" s="7"/>
-    </row>
-    <row r="221" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E221" s="7"/>
-      <c r="I221" s="7"/>
-    </row>
-    <row r="222" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E222" s="7"/>
-      <c r="I222" s="7"/>
-    </row>
-    <row r="223" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E223" s="7"/>
-      <c r="I223" s="7"/>
-    </row>
-    <row r="224" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E224" s="7"/>
-      <c r="I224" s="7"/>
-    </row>
-    <row r="225" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E225" s="7"/>
-      <c r="I225" s="7"/>
-    </row>
-    <row r="226" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E226" s="7"/>
-      <c r="I226" s="7"/>
-    </row>
-    <row r="227" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E227" s="7"/>
-      <c r="I227" s="7"/>
-    </row>
-    <row r="228" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E228" s="7"/>
-      <c r="I228" s="7"/>
-    </row>
-    <row r="229" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E229" s="7"/>
-      <c r="I229" s="7"/>
-    </row>
-    <row r="230" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E230" s="7"/>
-      <c r="I230" s="7"/>
-    </row>
-    <row r="231" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E231" s="7"/>
-      <c r="I231" s="7"/>
-    </row>
-    <row r="232" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E232" s="7"/>
-      <c r="I232" s="7"/>
-    </row>
-    <row r="233" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E233" s="7"/>
-      <c r="I233" s="7"/>
-    </row>
-    <row r="234" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E234" s="7"/>
-      <c r="I234" s="7"/>
-    </row>
-    <row r="235" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E235" s="7"/>
-      <c r="I235" s="7"/>
-    </row>
-    <row r="236" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E236" s="7"/>
-      <c r="I236" s="7"/>
-    </row>
-    <row r="237" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E237" s="7"/>
-      <c r="I237" s="7"/>
-    </row>
-    <row r="238" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E238" s="7"/>
-      <c r="I238" s="7"/>
-    </row>
-    <row r="239" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E239" s="7"/>
-      <c r="I239" s="7"/>
-    </row>
-    <row r="240" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E240" s="7"/>
-      <c r="I240" s="7"/>
-    </row>
-    <row r="241" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E241" s="7"/>
-      <c r="I241" s="7"/>
-    </row>
-    <row r="242" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E242" s="7"/>
-      <c r="I242" s="7"/>
-    </row>
-    <row r="243" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E243" s="7"/>
-      <c r="I243" s="7"/>
-    </row>
-    <row r="244" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E244" s="7"/>
-      <c r="I244" s="7"/>
-    </row>
-    <row r="245" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E245" s="7"/>
-      <c r="I245" s="7"/>
-    </row>
-    <row r="246" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E246" s="7"/>
-      <c r="I246" s="7"/>
-    </row>
-    <row r="247" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E247" s="7"/>
-      <c r="I247" s="7"/>
-    </row>
-    <row r="248" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E248" s="7"/>
-      <c r="I248" s="7"/>
-    </row>
-    <row r="249" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E249" s="7"/>
-      <c r="I249" s="7"/>
-    </row>
-    <row r="250" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E250" s="7"/>
-      <c r="I250" s="7"/>
-    </row>
-    <row r="251" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E251" s="7"/>
-      <c r="I251" s="7"/>
-    </row>
-    <row r="252" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E252" s="7"/>
-      <c r="I252" s="7"/>
-    </row>
-    <row r="253" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E253" s="7"/>
-      <c r="I253" s="7"/>
-    </row>
-    <row r="254" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E254" s="7"/>
-      <c r="I254" s="7"/>
-    </row>
-    <row r="255" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E255" s="7"/>
-      <c r="I255" s="7"/>
-    </row>
-    <row r="256" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E256" s="7"/>
-      <c r="I256" s="7"/>
-    </row>
-    <row r="257" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E257" s="7"/>
-      <c r="I257" s="7"/>
-    </row>
-    <row r="258" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E258" s="7"/>
-      <c r="I258" s="7"/>
-    </row>
-    <row r="259" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E259" s="7"/>
-      <c r="I259" s="7"/>
-    </row>
-    <row r="260" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E260" s="7"/>
-      <c r="I260" s="7"/>
-    </row>
-    <row r="261" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E261" s="7"/>
-      <c r="I261" s="7"/>
-    </row>
-    <row r="262" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E262" s="7"/>
-      <c r="I262" s="7"/>
-    </row>
-    <row r="263" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E263" s="7"/>
-      <c r="I263" s="7"/>
-    </row>
-    <row r="264" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E264" s="7"/>
-      <c r="I264" s="7"/>
-    </row>
-    <row r="265" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E265" s="7"/>
-      <c r="I265" s="7"/>
-    </row>
-    <row r="266" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E266" s="7"/>
-      <c r="I266" s="7"/>
-    </row>
-    <row r="267" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E267" s="7"/>
-      <c r="I267" s="7"/>
-    </row>
-    <row r="268" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E268" s="7"/>
-      <c r="I268" s="7"/>
-    </row>
-    <row r="269" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E269" s="7"/>
-      <c r="I269" s="7"/>
-    </row>
-    <row r="270" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E270" s="7"/>
-      <c r="I270" s="7"/>
-    </row>
-    <row r="271" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E271" s="7"/>
-      <c r="I271" s="7"/>
-    </row>
-    <row r="272" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E272" s="7"/>
-      <c r="I272" s="7"/>
-    </row>
-    <row r="273" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E273" s="7"/>
-      <c r="I273" s="7"/>
-    </row>
-    <row r="274" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E274" s="7"/>
-      <c r="I274" s="7"/>
-    </row>
-    <row r="275" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E275" s="7"/>
-      <c r="I275" s="7"/>
-    </row>
-    <row r="276" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E276" s="7"/>
-      <c r="I276" s="7"/>
-    </row>
-    <row r="277" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E277" s="7"/>
-      <c r="I277" s="7"/>
-    </row>
-    <row r="278" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E278" s="7"/>
-      <c r="I278" s="7"/>
-    </row>
-    <row r="279" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E279" s="7"/>
-      <c r="I279" s="7"/>
-    </row>
-    <row r="280" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E280" s="7"/>
-      <c r="I280" s="7"/>
-    </row>
-    <row r="281" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E281" s="7"/>
-      <c r="I281" s="7"/>
-    </row>
-    <row r="282" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E282" s="7"/>
-      <c r="I282" s="7"/>
-    </row>
-    <row r="283" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E283" s="7"/>
-      <c r="I283" s="7"/>
-    </row>
-    <row r="284" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E284" s="7"/>
-      <c r="I284" s="7"/>
-    </row>
-    <row r="285" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E285" s="7"/>
-      <c r="I285" s="7"/>
-    </row>
-    <row r="286" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E286" s="7"/>
-      <c r="I286" s="7"/>
-    </row>
-    <row r="287" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E287" s="7"/>
-      <c r="I287" s="7"/>
-    </row>
-    <row r="288" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E288" s="7"/>
-      <c r="I288" s="7"/>
-    </row>
-    <row r="289" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E289" s="7"/>
-      <c r="I289" s="7"/>
-    </row>
-    <row r="290" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E290" s="7"/>
-      <c r="I290" s="7"/>
-    </row>
-    <row r="291" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E291" s="7"/>
-      <c r="I291" s="7"/>
-    </row>
-    <row r="292" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E292" s="7"/>
-      <c r="I292" s="7"/>
-    </row>
-    <row r="293" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E293" s="7"/>
-      <c r="I293" s="7"/>
-    </row>
-    <row r="294" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E294" s="7"/>
-      <c r="I294" s="7"/>
-    </row>
-    <row r="295" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E295" s="7"/>
-      <c r="I295" s="7"/>
-    </row>
-    <row r="296" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E296" s="7"/>
-      <c r="I296" s="7"/>
-    </row>
-    <row r="297" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E297" s="7"/>
-      <c r="I297" s="7"/>
-    </row>
-    <row r="298" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E298" s="7"/>
-      <c r="I298" s="7"/>
-    </row>
-    <row r="299" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E299" s="7"/>
-      <c r="I299" s="7"/>
-    </row>
-    <row r="300" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E300" s="7"/>
-      <c r="I300" s="7"/>
-    </row>
-    <row r="301" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E301" s="7"/>
-      <c r="I301" s="7"/>
-    </row>
-    <row r="302" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E302" s="7"/>
-      <c r="I302" s="7"/>
-    </row>
-    <row r="303" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E303" s="7"/>
-      <c r="I303" s="7"/>
-    </row>
-    <row r="304" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E304" s="7"/>
-      <c r="I304" s="7"/>
-    </row>
-    <row r="305" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E305" s="7"/>
-      <c r="I305" s="7"/>
-    </row>
-    <row r="306" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E306" s="7"/>
-      <c r="I306" s="7"/>
-    </row>
-    <row r="307" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E307" s="7"/>
-      <c r="I307" s="7"/>
-    </row>
-    <row r="308" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E308" s="7"/>
-      <c r="I308" s="7"/>
-    </row>
-    <row r="309" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E309" s="7"/>
-      <c r="I309" s="7"/>
-    </row>
-    <row r="310" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E310" s="7"/>
-      <c r="I310" s="7"/>
-    </row>
-    <row r="311" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E311" s="7"/>
-      <c r="I311" s="7"/>
-    </row>
-    <row r="312" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E312" s="7"/>
-      <c r="I312" s="7"/>
-    </row>
-    <row r="313" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E313" s="7"/>
-      <c r="I313" s="7"/>
-    </row>
-    <row r="314" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E314" s="7"/>
-      <c r="I314" s="7"/>
-    </row>
-    <row r="315" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E315" s="7"/>
-      <c r="I315" s="7"/>
-    </row>
-    <row r="316" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E316" s="7"/>
-      <c r="I316" s="7"/>
-    </row>
-    <row r="317" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E317" s="7"/>
-      <c r="I317" s="7"/>
-    </row>
-    <row r="318" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E318" s="7"/>
-      <c r="I318" s="7"/>
-    </row>
-    <row r="319" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E319" s="7"/>
-      <c r="I319" s="7"/>
-    </row>
-    <row r="320" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E320" s="7"/>
-      <c r="I320" s="7"/>
-    </row>
-    <row r="321" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E321" s="7"/>
-      <c r="I321" s="7"/>
-    </row>
-    <row r="322" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E322" s="7"/>
-      <c r="I322" s="7"/>
-    </row>
-    <row r="323" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E323" s="7"/>
-      <c r="I323" s="7"/>
-    </row>
-    <row r="324" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E324" s="7"/>
-      <c r="I324" s="7"/>
-    </row>
-    <row r="325" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E325" s="7"/>
-      <c r="I325" s="7"/>
-    </row>
-    <row r="326" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E326" s="7"/>
-      <c r="I326" s="7"/>
-    </row>
-    <row r="327" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E327" s="7"/>
-      <c r="I327" s="7"/>
-    </row>
-    <row r="328" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E328" s="7"/>
-      <c r="I328" s="7"/>
-    </row>
-    <row r="329" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E329" s="7"/>
-      <c r="I329" s="7"/>
-    </row>
-    <row r="330" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E330" s="7"/>
-      <c r="I330" s="7"/>
-    </row>
-    <row r="331" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E331" s="7"/>
-      <c r="I331" s="7"/>
-    </row>
-    <row r="332" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E332" s="7"/>
-      <c r="I332" s="7"/>
-    </row>
-    <row r="333" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E333" s="7"/>
-      <c r="I333" s="7"/>
-    </row>
-    <row r="334" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E334" s="7"/>
-      <c r="I334" s="7"/>
-    </row>
-    <row r="335" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E335" s="7"/>
-      <c r="I335" s="7"/>
-    </row>
-    <row r="336" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E336" s="7"/>
-      <c r="I336" s="7"/>
-    </row>
-    <row r="337" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E337" s="7"/>
-      <c r="I337" s="7"/>
-    </row>
-    <row r="338" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E338" s="7"/>
-      <c r="I338" s="7"/>
-    </row>
-    <row r="339" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E339" s="7"/>
-      <c r="I339" s="7"/>
-    </row>
-    <row r="340" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E340" s="7"/>
-      <c r="I340" s="7"/>
-    </row>
-    <row r="341" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E341" s="7"/>
-      <c r="I341" s="7"/>
-    </row>
-    <row r="342" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E342" s="7"/>
-      <c r="I342" s="7"/>
-    </row>
-    <row r="343" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E343" s="7"/>
-      <c r="I343" s="7"/>
-    </row>
-    <row r="344" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E344" s="7"/>
-      <c r="I344" s="7"/>
-    </row>
-    <row r="345" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E345" s="7"/>
-      <c r="I345" s="7"/>
-    </row>
-    <row r="346" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E346" s="7"/>
-      <c r="I346" s="7"/>
-    </row>
-    <row r="347" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E347" s="7"/>
-      <c r="I347" s="7"/>
-    </row>
-    <row r="348" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E348" s="7"/>
-      <c r="I348" s="7"/>
-    </row>
-    <row r="349" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E349" s="7"/>
-      <c r="I349" s="7"/>
-    </row>
-    <row r="350" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E350" s="7"/>
-      <c r="I350" s="7"/>
-    </row>
-    <row r="351" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E351" s="7"/>
-      <c r="I351" s="7"/>
-    </row>
-    <row r="352" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E352" s="7"/>
-      <c r="I352" s="7"/>
-    </row>
-    <row r="353" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E353" s="7"/>
-      <c r="I353" s="7"/>
-    </row>
-    <row r="354" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E354" s="7"/>
-      <c r="I354" s="7"/>
-    </row>
-    <row r="355" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E355" s="7"/>
-      <c r="I355" s="7"/>
-    </row>
-    <row r="356" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E356" s="7"/>
-      <c r="I356" s="7"/>
-    </row>
-    <row r="357" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E357" s="7"/>
-      <c r="I357" s="7"/>
-    </row>
-    <row r="358" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E358" s="7"/>
-      <c r="I358" s="7"/>
-    </row>
-    <row r="359" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E359" s="7"/>
-      <c r="I359" s="7"/>
-    </row>
-    <row r="360" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E360" s="7"/>
-      <c r="I360" s="7"/>
-    </row>
-    <row r="361" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E361" s="7"/>
-      <c r="I361" s="7"/>
-    </row>
-    <row r="362" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E362" s="7"/>
-      <c r="I362" s="7"/>
-    </row>
-    <row r="363" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E363" s="7"/>
-      <c r="I363" s="7"/>
-    </row>
-    <row r="364" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E364" s="7"/>
-      <c r="I364" s="7"/>
-    </row>
-    <row r="365" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E365" s="7"/>
-      <c r="I365" s="7"/>
-    </row>
-    <row r="366" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E366" s="7"/>
-      <c r="I366" s="7"/>
-    </row>
-    <row r="367" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E367" s="7"/>
-      <c r="I367" s="7"/>
-    </row>
-    <row r="368" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E368" s="7"/>
-      <c r="I368" s="7"/>
-    </row>
-    <row r="369" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E369" s="7"/>
-      <c r="I369" s="7"/>
-    </row>
-    <row r="370" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E370" s="7"/>
-      <c r="I370" s="7"/>
-    </row>
-    <row r="371" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E371" s="7"/>
-      <c r="I371" s="7"/>
-    </row>
-    <row r="372" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E372" s="7"/>
-      <c r="I372" s="7"/>
-    </row>
-    <row r="373" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E373" s="7"/>
-      <c r="I373" s="7"/>
-    </row>
-    <row r="374" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E374" s="7"/>
-      <c r="I374" s="7"/>
-    </row>
-    <row r="375" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E375" s="7"/>
-      <c r="I375" s="7"/>
-    </row>
-    <row r="376" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E376" s="7"/>
-      <c r="I376" s="7"/>
-    </row>
-    <row r="377" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E377" s="7"/>
-      <c r="I377" s="7"/>
-    </row>
-    <row r="378" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E378" s="7"/>
-      <c r="I378" s="7"/>
-    </row>
-    <row r="379" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E379" s="7"/>
-      <c r="I379" s="7"/>
-    </row>
-    <row r="380" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E380" s="7"/>
-      <c r="I380" s="7"/>
-    </row>
-    <row r="381" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E381" s="7"/>
-      <c r="I381" s="7"/>
-    </row>
-    <row r="382" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E382" s="7"/>
-      <c r="I382" s="7"/>
-    </row>
-    <row r="383" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E383" s="7"/>
-      <c r="I383" s="7"/>
-    </row>
-    <row r="384" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E384" s="7"/>
-      <c r="I384" s="7"/>
-    </row>
-    <row r="385" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E385" s="7"/>
-      <c r="I385" s="7"/>
-    </row>
-    <row r="386" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E386" s="7"/>
-      <c r="I386" s="7"/>
-    </row>
-    <row r="387" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E387" s="7"/>
-      <c r="I387" s="7"/>
-    </row>
-    <row r="388" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E388" s="7"/>
-      <c r="I388" s="7"/>
-    </row>
-    <row r="389" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E389" s="7"/>
-      <c r="I389" s="7"/>
-    </row>
-    <row r="390" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E390" s="7"/>
-      <c r="I390" s="7"/>
-    </row>
-    <row r="391" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E391" s="7"/>
-      <c r="I391" s="7"/>
-    </row>
-    <row r="392" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E392" s="7"/>
-      <c r="I392" s="7"/>
-    </row>
-    <row r="393" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E393" s="7"/>
-      <c r="I393" s="7"/>
-    </row>
-    <row r="394" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E394" s="7"/>
-      <c r="I394" s="7"/>
-    </row>
-    <row r="395" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E395" s="7"/>
-      <c r="I395" s="7"/>
-    </row>
-    <row r="396" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E396" s="7"/>
-      <c r="I396" s="7"/>
-    </row>
-    <row r="397" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E397" s="7"/>
-      <c r="I397" s="7"/>
-    </row>
-    <row r="398" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E398" s="7"/>
-      <c r="I398" s="7"/>
-    </row>
-    <row r="399" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E399" s="7"/>
-      <c r="I399" s="7"/>
-    </row>
-    <row r="400" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E400" s="7"/>
-      <c r="I400" s="7"/>
-    </row>
-    <row r="401" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E401" s="7"/>
-      <c r="I401" s="7"/>
-    </row>
-    <row r="402" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E402" s="7"/>
-      <c r="I402" s="7"/>
-    </row>
-    <row r="403" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E403" s="7"/>
-      <c r="I403" s="7"/>
-    </row>
-    <row r="404" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E404" s="7"/>
-      <c r="I404" s="7"/>
-    </row>
-    <row r="405" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E405" s="7"/>
-      <c r="I405" s="7"/>
-    </row>
-    <row r="406" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E406" s="7"/>
-      <c r="I406" s="7"/>
-    </row>
-    <row r="407" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E407" s="7"/>
-      <c r="I407" s="7"/>
-    </row>
-    <row r="408" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E408" s="7"/>
-      <c r="I408" s="7"/>
-    </row>
-    <row r="409" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E409" s="7"/>
-      <c r="I409" s="7"/>
-    </row>
-    <row r="410" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E410" s="7"/>
-      <c r="I410" s="7"/>
-    </row>
-    <row r="411" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E411" s="7"/>
-      <c r="I411" s="7"/>
-    </row>
-    <row r="412" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E412" s="7"/>
-      <c r="I412" s="7"/>
-    </row>
-    <row r="413" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E413" s="7"/>
-      <c r="I413" s="7"/>
-    </row>
-    <row r="414" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E414" s="7"/>
-      <c r="I414" s="7"/>
-    </row>
-    <row r="415" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E415" s="7"/>
-      <c r="I415" s="7"/>
-    </row>
-    <row r="416" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E416" s="7"/>
-      <c r="I416" s="7"/>
-    </row>
-    <row r="417" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E417" s="7"/>
-      <c r="I417" s="7"/>
-    </row>
-    <row r="418" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E418" s="7"/>
-      <c r="I418" s="7"/>
-    </row>
-    <row r="419" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E419" s="7"/>
-      <c r="I419" s="7"/>
-    </row>
-    <row r="420" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E420" s="7"/>
-      <c r="I420" s="7"/>
-    </row>
-    <row r="421" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E421" s="7"/>
-      <c r="I421" s="7"/>
-    </row>
-    <row r="422" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E422" s="7"/>
-      <c r="I422" s="7"/>
-    </row>
-    <row r="423" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E423" s="7"/>
-      <c r="I423" s="7"/>
-    </row>
-    <row r="424" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E424" s="7"/>
-      <c r="I424" s="7"/>
-    </row>
-    <row r="425" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E425" s="7"/>
-      <c r="I425" s="7"/>
-    </row>
-    <row r="426" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E426" s="7"/>
-      <c r="I426" s="7"/>
-    </row>
-    <row r="427" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E427" s="7"/>
-      <c r="I427" s="7"/>
-    </row>
-    <row r="428" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E428" s="7"/>
-      <c r="I428" s="7"/>
-    </row>
-    <row r="429" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E429" s="7"/>
-      <c r="I429" s="7"/>
-    </row>
-    <row r="430" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E430" s="7"/>
-      <c r="I430" s="7"/>
-    </row>
-    <row r="431" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E431" s="7"/>
-      <c r="I431" s="7"/>
-    </row>
-    <row r="432" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E432" s="7"/>
-      <c r="I432" s="7"/>
-    </row>
-    <row r="433" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E433" s="7"/>
-      <c r="I433" s="7"/>
-    </row>
-    <row r="434" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E434" s="7"/>
-      <c r="I434" s="7"/>
-    </row>
-    <row r="435" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E435" s="7"/>
-      <c r="I435" s="7"/>
-    </row>
-    <row r="436" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E436" s="7"/>
-      <c r="I436" s="7"/>
-    </row>
-    <row r="437" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E437" s="7"/>
-      <c r="I437" s="7"/>
-    </row>
-    <row r="438" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E438" s="7"/>
-      <c r="I438" s="7"/>
-    </row>
-    <row r="439" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E439" s="7"/>
-      <c r="I439" s="7"/>
-    </row>
-    <row r="440" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E440" s="7"/>
-      <c r="I440" s="7"/>
-    </row>
-    <row r="441" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E441" s="7"/>
-      <c r="I441" s="7"/>
-    </row>
-    <row r="442" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E442" s="7"/>
-      <c r="I442" s="7"/>
-    </row>
-    <row r="443" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E443" s="7"/>
-      <c r="I443" s="7"/>
-    </row>
-    <row r="444" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E444" s="7"/>
-      <c r="I444" s="7"/>
-    </row>
-    <row r="445" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E445" s="7"/>
-      <c r="I445" s="7"/>
-    </row>
-    <row r="446" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E446" s="7"/>
-      <c r="I446" s="7"/>
-    </row>
-    <row r="447" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E447" s="7"/>
-      <c r="I447" s="7"/>
-    </row>
-    <row r="448" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E448" s="7"/>
-      <c r="I448" s="7"/>
-    </row>
-    <row r="449" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E449" s="7"/>
-      <c r="I449" s="7"/>
-    </row>
-    <row r="450" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E450" s="7"/>
-      <c r="I450" s="7"/>
-    </row>
-    <row r="451" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E451" s="7"/>
-      <c r="I451" s="7"/>
-    </row>
-    <row r="452" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E452" s="7"/>
-      <c r="I452" s="7"/>
-    </row>
-    <row r="453" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E453" s="7"/>
-      <c r="I453" s="7"/>
-    </row>
-    <row r="454" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E454" s="7"/>
-      <c r="I454" s="7"/>
-    </row>
-    <row r="455" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E455" s="7"/>
-      <c r="I455" s="7"/>
-    </row>
-    <row r="456" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E456" s="7"/>
-      <c r="I456" s="7"/>
-    </row>
-    <row r="457" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E457" s="7"/>
-      <c r="I457" s="7"/>
-    </row>
-    <row r="458" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E458" s="7"/>
-      <c r="I458" s="7"/>
-    </row>
-    <row r="459" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E459" s="7"/>
-      <c r="I459" s="7"/>
-    </row>
-    <row r="460" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E460" s="7"/>
-      <c r="I460" s="7"/>
-    </row>
-    <row r="461" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E461" s="7"/>
-      <c r="I461" s="7"/>
-    </row>
-    <row r="462" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E462" s="7"/>
-      <c r="I462" s="7"/>
-    </row>
-    <row r="463" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E463" s="7"/>
-      <c r="I463" s="7"/>
-    </row>
-    <row r="464" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E464" s="7"/>
-      <c r="I464" s="7"/>
-    </row>
-    <row r="465" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E465" s="7"/>
-      <c r="I465" s="7"/>
-    </row>
-    <row r="466" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E466" s="7"/>
-      <c r="I466" s="7"/>
-    </row>
-    <row r="467" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E467" s="7"/>
-      <c r="I467" s="7"/>
-    </row>
-    <row r="468" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E468" s="7"/>
-      <c r="I468" s="7"/>
-    </row>
-    <row r="469" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E469" s="7"/>
-      <c r="I469" s="7"/>
-    </row>
-    <row r="470" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E470" s="7"/>
-      <c r="I470" s="7"/>
-    </row>
-    <row r="471" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E471" s="7"/>
-      <c r="I471" s="7"/>
-    </row>
-    <row r="472" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E472" s="7"/>
-      <c r="I472" s="7"/>
-    </row>
-    <row r="473" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E473" s="7"/>
-      <c r="I473" s="7"/>
-    </row>
-    <row r="474" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E474" s="7"/>
-      <c r="I474" s="7"/>
-    </row>
-    <row r="475" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E475" s="7"/>
-      <c r="I475" s="7"/>
-    </row>
-    <row r="476" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E476" s="7"/>
-      <c r="I476" s="7"/>
-    </row>
-    <row r="477" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E477" s="7"/>
-      <c r="I477" s="7"/>
-    </row>
-    <row r="478" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E478" s="7"/>
-      <c r="I478" s="7"/>
-    </row>
-    <row r="479" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E479" s="7"/>
-      <c r="I479" s="7"/>
-    </row>
-    <row r="480" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E480" s="7"/>
-      <c r="I480" s="7"/>
-    </row>
-    <row r="481" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E481" s="7"/>
-      <c r="I481" s="7"/>
-    </row>
-    <row r="482" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E482" s="7"/>
-      <c r="I482" s="7"/>
-    </row>
-    <row r="483" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E483" s="7"/>
-      <c r="I483" s="7"/>
-    </row>
-    <row r="484" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E484" s="7"/>
-      <c r="I484" s="7"/>
-    </row>
-    <row r="485" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E485" s="7"/>
-      <c r="I485" s="7"/>
-    </row>
-    <row r="486" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E486" s="7"/>
-      <c r="I486" s="7"/>
-    </row>
-    <row r="487" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E487" s="7"/>
-      <c r="I487" s="7"/>
-    </row>
-    <row r="488" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E488" s="7"/>
-      <c r="I488" s="7"/>
-    </row>
-    <row r="489" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E489" s="7"/>
-      <c r="I489" s="7"/>
-    </row>
-    <row r="490" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E490" s="7"/>
-      <c r="I490" s="7"/>
-    </row>
-    <row r="491" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E491" s="7"/>
-      <c r="I491" s="7"/>
-    </row>
-    <row r="492" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E492" s="7"/>
-      <c r="I492" s="7"/>
-    </row>
-    <row r="493" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E493" s="7"/>
-      <c r="I493" s="7"/>
-    </row>
-    <row r="494" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E494" s="7"/>
-      <c r="I494" s="7"/>
-    </row>
-    <row r="495" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E495" s="7"/>
-      <c r="I495" s="7"/>
-    </row>
-    <row r="496" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E496" s="7"/>
-      <c r="I496" s="7"/>
-    </row>
-    <row r="497" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E497" s="7"/>
-      <c r="I497" s="7"/>
-    </row>
-    <row r="498" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E498" s="7"/>
-      <c r="I498" s="7"/>
-    </row>
-    <row r="499" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E499" s="7"/>
-      <c r="I499" s="7"/>
-    </row>
-    <row r="500" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E500" s="7"/>
-      <c r="I500" s="7"/>
-    </row>
-    <row r="501" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E501" s="7"/>
-      <c r="I501" s="7"/>
-    </row>
-    <row r="502" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E502" s="7"/>
-      <c r="I502" s="7"/>
-    </row>
-    <row r="503" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E503" s="7"/>
-      <c r="I503" s="7"/>
-    </row>
-    <row r="504" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E504" s="7"/>
-      <c r="I504" s="7"/>
-    </row>
-    <row r="505" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E505" s="7"/>
-      <c r="I505" s="7"/>
-    </row>
-    <row r="506" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E506" s="7"/>
-      <c r="I506" s="7"/>
-    </row>
-    <row r="507" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E507" s="7"/>
-      <c r="I507" s="7"/>
-    </row>
-    <row r="508" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E508" s="7"/>
-      <c r="I508" s="7"/>
-    </row>
-    <row r="509" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E509" s="7"/>
-      <c r="I509" s="7"/>
-    </row>
-    <row r="510" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E510" s="7"/>
-      <c r="I510" s="7"/>
-    </row>
-    <row r="511" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E511" s="7"/>
-      <c r="I511" s="7"/>
-    </row>
-    <row r="512" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E512" s="7"/>
-      <c r="I512" s="7"/>
-    </row>
-    <row r="513" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E513" s="7"/>
-      <c r="I513" s="7"/>
-    </row>
-    <row r="514" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E514" s="7"/>
-      <c r="I514" s="7"/>
-    </row>
-    <row r="515" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E515" s="7"/>
-      <c r="I515" s="7"/>
-    </row>
-    <row r="516" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E516" s="7"/>
-      <c r="I516" s="7"/>
-    </row>
-    <row r="517" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E517" s="7"/>
-      <c r="I517" s="7"/>
-    </row>
-    <row r="518" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E518" s="7"/>
-      <c r="I518" s="7"/>
-    </row>
-    <row r="519" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E519" s="7"/>
-      <c r="I519" s="7"/>
-    </row>
-    <row r="520" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E520" s="7"/>
-      <c r="I520" s="7"/>
-    </row>
-    <row r="521" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E521" s="7"/>
-      <c r="I521" s="7"/>
-    </row>
-    <row r="522" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E522" s="7"/>
-      <c r="I522" s="7"/>
-    </row>
-    <row r="523" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E523" s="7"/>
-      <c r="I523" s="7"/>
-    </row>
-    <row r="524" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E524" s="7"/>
-      <c r="I524" s="7"/>
-    </row>
-    <row r="525" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E525" s="7"/>
-      <c r="I525" s="7"/>
-    </row>
-    <row r="526" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E526" s="7"/>
-      <c r="I526" s="7"/>
-    </row>
-    <row r="527" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E527" s="7"/>
-      <c r="I527" s="7"/>
-    </row>
-    <row r="528" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E528" s="7"/>
-      <c r="I528" s="7"/>
-    </row>
-    <row r="529" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E529" s="7"/>
-      <c r="I529" s="7"/>
-    </row>
-    <row r="530" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E530" s="7"/>
-      <c r="I530" s="7"/>
-    </row>
-    <row r="531" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E531" s="7"/>
-      <c r="I531" s="7"/>
-    </row>
-    <row r="532" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E532" s="7"/>
-      <c r="I532" s="7"/>
-    </row>
-    <row r="533" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E533" s="7"/>
-      <c r="I533" s="7"/>
-    </row>
-    <row r="534" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E534" s="7"/>
-      <c r="I534" s="7"/>
-    </row>
-    <row r="535" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E535" s="7"/>
-      <c r="I535" s="7"/>
-    </row>
-    <row r="536" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E536" s="7"/>
-      <c r="I536" s="7"/>
-    </row>
-    <row r="537" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E537" s="7"/>
-      <c r="I537" s="7"/>
-    </row>
-    <row r="538" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E538" s="7"/>
-      <c r="I538" s="7"/>
-    </row>
-    <row r="539" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E539" s="7"/>
-      <c r="I539" s="7"/>
-    </row>
-    <row r="540" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E540" s="7"/>
-      <c r="I540" s="7"/>
-    </row>
-    <row r="541" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E541" s="7"/>
-      <c r="I541" s="7"/>
-    </row>
-    <row r="542" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E542" s="7"/>
-      <c r="I542" s="7"/>
-    </row>
-    <row r="543" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E543" s="7"/>
-      <c r="I543" s="7"/>
-    </row>
-    <row r="544" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E544" s="7"/>
-      <c r="I544" s="7"/>
-    </row>
-    <row r="545" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E545" s="7"/>
-      <c r="I545" s="7"/>
-    </row>
-    <row r="546" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E546" s="7"/>
-      <c r="I546" s="7"/>
-    </row>
-    <row r="547" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E547" s="7"/>
-      <c r="I547" s="7"/>
-    </row>
-    <row r="548" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E548" s="7"/>
-      <c r="I548" s="7"/>
-    </row>
-    <row r="549" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E549" s="7"/>
-      <c r="I549" s="7"/>
-    </row>
-    <row r="550" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E550" s="7"/>
-      <c r="I550" s="7"/>
-    </row>
-    <row r="551" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E551" s="7"/>
-      <c r="I551" s="7"/>
-    </row>
-    <row r="552" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E552" s="7"/>
-      <c r="I552" s="7"/>
-    </row>
-    <row r="553" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E553" s="7"/>
-      <c r="I553" s="7"/>
-    </row>
-    <row r="554" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E554" s="7"/>
-      <c r="I554" s="7"/>
-    </row>
-    <row r="555" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E555" s="7"/>
-      <c r="I555" s="7"/>
-    </row>
-    <row r="556" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E556" s="7"/>
-      <c r="I556" s="7"/>
-    </row>
-    <row r="557" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E557" s="7"/>
-      <c r="I557" s="7"/>
-    </row>
-    <row r="558" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E558" s="7"/>
-      <c r="I558" s="7"/>
-    </row>
-    <row r="559" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E559" s="7"/>
-      <c r="I559" s="7"/>
-    </row>
-    <row r="560" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E560" s="7"/>
-      <c r="I560" s="7"/>
-    </row>
-    <row r="561" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E561" s="7"/>
-      <c r="I561" s="7"/>
-    </row>
-    <row r="562" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E562" s="7"/>
-      <c r="I562" s="7"/>
-    </row>
-    <row r="563" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E563" s="7"/>
-      <c r="I563" s="7"/>
-    </row>
-    <row r="564" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E564" s="7"/>
-      <c r="I564" s="7"/>
-    </row>
-    <row r="565" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E565" s="7"/>
-      <c r="I565" s="7"/>
-    </row>
-    <row r="566" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E566" s="7"/>
-      <c r="I566" s="7"/>
-    </row>
-    <row r="567" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E567" s="7"/>
-      <c r="I567" s="7"/>
-    </row>
-    <row r="568" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E568" s="7"/>
-      <c r="I568" s="7"/>
-    </row>
-    <row r="569" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E569" s="7"/>
-      <c r="I569" s="7"/>
-    </row>
-    <row r="570" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E570" s="7"/>
-      <c r="I570" s="7"/>
-    </row>
-    <row r="571" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E571" s="7"/>
-      <c r="I571" s="7"/>
-    </row>
-    <row r="572" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E572" s="7"/>
-      <c r="I572" s="7"/>
-    </row>
-    <row r="573" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E573" s="7"/>
-      <c r="I573" s="7"/>
-    </row>
-    <row r="574" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E574" s="7"/>
-      <c r="I574" s="7"/>
-    </row>
-    <row r="575" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E575" s="7"/>
-      <c r="I575" s="7"/>
-    </row>
-    <row r="576" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E576" s="7"/>
-      <c r="I576" s="7"/>
-    </row>
-    <row r="577" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E577" s="7"/>
-      <c r="I577" s="7"/>
-    </row>
-    <row r="578" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E578" s="7"/>
-      <c r="I578" s="7"/>
-    </row>
-    <row r="579" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E579" s="7"/>
-      <c r="I579" s="7"/>
-    </row>
-    <row r="580" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E580" s="7"/>
-      <c r="I580" s="7"/>
-    </row>
-    <row r="581" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E581" s="7"/>
-      <c r="I581" s="7"/>
-    </row>
-    <row r="582" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E582" s="7"/>
-      <c r="I582" s="7"/>
-    </row>
-    <row r="583" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E583" s="7"/>
-      <c r="I583" s="7"/>
-    </row>
-    <row r="584" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E584" s="7"/>
-      <c r="I584" s="7"/>
-    </row>
-    <row r="585" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E585" s="7"/>
-      <c r="I585" s="7"/>
-    </row>
-    <row r="586" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E586" s="7"/>
-      <c r="I586" s="7"/>
-    </row>
-    <row r="587" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E587" s="7"/>
-      <c r="I587" s="7"/>
-    </row>
-    <row r="588" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E588" s="7"/>
-      <c r="I588" s="7"/>
-    </row>
-    <row r="589" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E589" s="7"/>
-      <c r="I589" s="7"/>
-    </row>
-    <row r="590" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E590" s="7"/>
-      <c r="I590" s="7"/>
-    </row>
-    <row r="591" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E591" s="7"/>
-      <c r="I591" s="7"/>
-    </row>
-    <row r="592" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E592" s="7"/>
-      <c r="I592" s="7"/>
-    </row>
-    <row r="593" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E593" s="7"/>
-      <c r="I593" s="7"/>
-    </row>
-    <row r="594" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E594" s="7"/>
-      <c r="I594" s="7"/>
-    </row>
-    <row r="595" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E595" s="7"/>
-      <c r="I595" s="7"/>
-    </row>
-    <row r="596" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E596" s="7"/>
-      <c r="I596" s="7"/>
-    </row>
-    <row r="597" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E597" s="7"/>
-      <c r="I597" s="7"/>
-    </row>
-    <row r="598" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E598" s="7"/>
-      <c r="I598" s="7"/>
-    </row>
-    <row r="599" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E599" s="7"/>
-      <c r="I599" s="7"/>
-    </row>
-    <row r="600" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E600" s="7"/>
-      <c r="I600" s="7"/>
-    </row>
-    <row r="601" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E601" s="7"/>
-      <c r="I601" s="7"/>
-    </row>
-    <row r="602" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E602" s="7"/>
-      <c r="I602" s="7"/>
-    </row>
-    <row r="603" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E603" s="7"/>
-      <c r="I603" s="7"/>
-    </row>
-    <row r="604" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E604" s="7"/>
-      <c r="I604" s="7"/>
-    </row>
-    <row r="605" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E605" s="7"/>
-      <c r="I605" s="7"/>
-    </row>
-    <row r="606" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E606" s="7"/>
-      <c r="I606" s="7"/>
-    </row>
-    <row r="607" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E607" s="7"/>
-      <c r="I607" s="7"/>
-    </row>
-    <row r="608" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E608" s="7"/>
-      <c r="I608" s="7"/>
-    </row>
-    <row r="609" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E609" s="7"/>
-      <c r="I609" s="7"/>
-    </row>
-    <row r="610" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E610" s="7"/>
-      <c r="I610" s="7"/>
-    </row>
-    <row r="611" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E611" s="7"/>
-      <c r="I611" s="7"/>
-    </row>
-    <row r="612" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E612" s="7"/>
-      <c r="I612" s="7"/>
-    </row>
-    <row r="613" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E613" s="7"/>
-      <c r="I613" s="7"/>
-    </row>
-    <row r="614" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E614" s="7"/>
-      <c r="I614" s="7"/>
-    </row>
-    <row r="615" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E615" s="7"/>
-      <c r="I615" s="7"/>
-    </row>
-    <row r="616" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E616" s="7"/>
-      <c r="I616" s="7"/>
-    </row>
-    <row r="617" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E617" s="7"/>
-      <c r="I617" s="7"/>
-    </row>
-    <row r="618" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E618" s="7"/>
-      <c r="I618" s="7"/>
-    </row>
-    <row r="619" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E619" s="7"/>
-      <c r="I619" s="7"/>
-    </row>
-    <row r="620" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E620" s="7"/>
-      <c r="I620" s="7"/>
-    </row>
-    <row r="621" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E621" s="7"/>
-      <c r="I621" s="7"/>
-    </row>
-    <row r="622" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E622" s="7"/>
-      <c r="I622" s="7"/>
-    </row>
-    <row r="623" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E623" s="7"/>
-      <c r="I623" s="7"/>
-    </row>
-    <row r="624" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E624" s="7"/>
-      <c r="I624" s="7"/>
-    </row>
-    <row r="625" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E625" s="7"/>
-      <c r="I625" s="7"/>
-    </row>
-    <row r="626" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E626" s="7"/>
-      <c r="I626" s="7"/>
-    </row>
-    <row r="627" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E627" s="7"/>
-      <c r="I627" s="7"/>
-    </row>
-    <row r="628" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E628" s="7"/>
-      <c r="I628" s="7"/>
-    </row>
-    <row r="629" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E629" s="7"/>
-      <c r="I629" s="7"/>
-    </row>
-    <row r="630" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E630" s="7"/>
-      <c r="I630" s="7"/>
-    </row>
-    <row r="631" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E631" s="7"/>
-      <c r="I631" s="7"/>
-    </row>
-    <row r="632" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E632" s="7"/>
-      <c r="I632" s="7"/>
-    </row>
-    <row r="633" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E633" s="7"/>
-      <c r="I633" s="7"/>
-    </row>
-    <row r="634" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E634" s="7"/>
-      <c r="I634" s="7"/>
-    </row>
-    <row r="635" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E635" s="7"/>
-      <c r="I635" s="7"/>
-    </row>
-    <row r="636" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E636" s="7"/>
-      <c r="I636" s="7"/>
-    </row>
-    <row r="637" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E637" s="7"/>
-      <c r="I637" s="7"/>
-    </row>
-    <row r="638" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E638" s="7"/>
-      <c r="I638" s="7"/>
-    </row>
-    <row r="639" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E639" s="7"/>
-      <c r="I639" s="7"/>
-    </row>
-    <row r="640" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E640" s="7"/>
-      <c r="I640" s="7"/>
-    </row>
-    <row r="641" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E641" s="7"/>
-      <c r="I641" s="7"/>
-    </row>
-    <row r="642" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E642" s="7"/>
-      <c r="I642" s="7"/>
-    </row>
-    <row r="643" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E643" s="7"/>
-      <c r="I643" s="7"/>
-    </row>
-    <row r="644" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E644" s="7"/>
-      <c r="I644" s="7"/>
-    </row>
-    <row r="645" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E645" s="7"/>
-      <c r="I645" s="7"/>
-    </row>
-    <row r="646" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E646" s="7"/>
-      <c r="I646" s="7"/>
-    </row>
-    <row r="647" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E647" s="7"/>
-      <c r="I647" s="7"/>
-    </row>
-    <row r="648" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E648" s="7"/>
-      <c r="I648" s="7"/>
-    </row>
-    <row r="649" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E649" s="7"/>
-      <c r="I649" s="7"/>
-    </row>
-    <row r="650" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E650" s="7"/>
-      <c r="I650" s="7"/>
-    </row>
-    <row r="651" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E651" s="7"/>
-      <c r="I651" s="7"/>
-    </row>
-    <row r="652" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E652" s="7"/>
-      <c r="I652" s="7"/>
-    </row>
-    <row r="653" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E653" s="7"/>
-      <c r="I653" s="7"/>
-    </row>
-    <row r="654" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E654" s="7"/>
-      <c r="I654" s="7"/>
-    </row>
-    <row r="655" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E655" s="7"/>
-      <c r="I655" s="7"/>
-    </row>
-    <row r="656" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E656" s="7"/>
-      <c r="I656" s="7"/>
-    </row>
-    <row r="657" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E657" s="7"/>
-      <c r="I657" s="7"/>
-    </row>
-    <row r="658" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E658" s="7"/>
-      <c r="I658" s="7"/>
-    </row>
-    <row r="659" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E659" s="7"/>
-      <c r="I659" s="7"/>
-    </row>
-    <row r="660" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E660" s="7"/>
-      <c r="I660" s="7"/>
-    </row>
-    <row r="661" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E661" s="7"/>
-      <c r="I661" s="7"/>
-    </row>
-    <row r="662" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E662" s="7"/>
-      <c r="I662" s="7"/>
-    </row>
-    <row r="663" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E663" s="7"/>
-      <c r="I663" s="7"/>
-    </row>
-    <row r="664" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E664" s="7"/>
-      <c r="I664" s="7"/>
-    </row>
-    <row r="665" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E665" s="7"/>
-      <c r="I665" s="7"/>
-    </row>
-    <row r="666" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E666" s="7"/>
-      <c r="I666" s="7"/>
-    </row>
-    <row r="667" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E667" s="7"/>
-      <c r="I667" s="7"/>
-    </row>
-    <row r="668" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E668" s="7"/>
-      <c r="I668" s="7"/>
-    </row>
-    <row r="669" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E669" s="7"/>
-      <c r="I669" s="7"/>
-    </row>
-    <row r="670" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E670" s="7"/>
-      <c r="I670" s="7"/>
-    </row>
-    <row r="671" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E671" s="7"/>
-      <c r="I671" s="7"/>
-    </row>
-    <row r="672" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E672" s="7"/>
-      <c r="I672" s="7"/>
-    </row>
-    <row r="673" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E673" s="7"/>
-      <c r="I673" s="7"/>
-    </row>
-    <row r="674" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E674" s="7"/>
-      <c r="I674" s="7"/>
-    </row>
-    <row r="675" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E675" s="7"/>
-      <c r="I675" s="7"/>
-    </row>
-    <row r="676" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E676" s="7"/>
-      <c r="I676" s="7"/>
-    </row>
-    <row r="677" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E677" s="7"/>
-      <c r="I677" s="7"/>
-    </row>
-    <row r="678" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E678" s="7"/>
-      <c r="I678" s="7"/>
-    </row>
-    <row r="679" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E679" s="7"/>
-      <c r="I679" s="7"/>
-    </row>
-    <row r="680" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E680" s="7"/>
-      <c r="I680" s="7"/>
-    </row>
-    <row r="681" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E681" s="7"/>
-      <c r="I681" s="7"/>
-    </row>
-    <row r="682" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E682" s="7"/>
-      <c r="I682" s="7"/>
-    </row>
-    <row r="683" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E683" s="7"/>
-      <c r="I683" s="7"/>
-    </row>
-    <row r="684" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E684" s="7"/>
-      <c r="I684" s="7"/>
-    </row>
-    <row r="685" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E685" s="7"/>
-      <c r="I685" s="7"/>
-    </row>
-    <row r="686" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E686" s="7"/>
-      <c r="I686" s="7"/>
-    </row>
-    <row r="687" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E687" s="7"/>
-      <c r="I687" s="7"/>
-    </row>
-    <row r="688" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E688" s="7"/>
-      <c r="I688" s="7"/>
-    </row>
-    <row r="689" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E689" s="7"/>
-      <c r="I689" s="7"/>
-    </row>
-    <row r="690" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E690" s="7"/>
-      <c r="I690" s="7"/>
-    </row>
-    <row r="691" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E691" s="7"/>
-      <c r="I691" s="7"/>
-    </row>
-    <row r="692" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E692" s="7"/>
-      <c r="I692" s="7"/>
-    </row>
-    <row r="693" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E693" s="7"/>
-      <c r="I693" s="7"/>
-    </row>
-    <row r="694" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E694" s="7"/>
-      <c r="I694" s="7"/>
-    </row>
-    <row r="695" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E695" s="7"/>
-      <c r="I695" s="7"/>
-    </row>
-    <row r="696" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E696" s="7"/>
-      <c r="I696" s="7"/>
-    </row>
-    <row r="697" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E697" s="7"/>
-      <c r="I697" s="7"/>
-    </row>
-    <row r="698" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E698" s="7"/>
-      <c r="I698" s="7"/>
-    </row>
-    <row r="699" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E699" s="7"/>
-      <c r="I699" s="7"/>
-    </row>
-    <row r="700" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E700" s="7"/>
-      <c r="I700" s="7"/>
-    </row>
-    <row r="701" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E701" s="7"/>
-      <c r="I701" s="7"/>
-    </row>
-    <row r="702" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E702" s="7"/>
-      <c r="I702" s="7"/>
-    </row>
-    <row r="703" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E703" s="7"/>
-      <c r="I703" s="7"/>
-    </row>
-    <row r="704" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E704" s="7"/>
-      <c r="I704" s="7"/>
-    </row>
-    <row r="705" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E705" s="7"/>
-      <c r="I705" s="7"/>
-    </row>
-    <row r="706" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E706" s="7"/>
-      <c r="I706" s="7"/>
-    </row>
-    <row r="707" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E707" s="7"/>
-      <c r="I707" s="7"/>
-    </row>
-    <row r="708" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E708" s="7"/>
-      <c r="I708" s="7"/>
-    </row>
-    <row r="709" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E709" s="7"/>
-      <c r="I709" s="7"/>
-    </row>
-    <row r="710" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E710" s="7"/>
-      <c r="I710" s="7"/>
-    </row>
-    <row r="711" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E711" s="7"/>
-      <c r="I711" s="7"/>
-    </row>
-    <row r="712" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E712" s="7"/>
-      <c r="I712" s="7"/>
-    </row>
-    <row r="713" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E713" s="7"/>
-      <c r="I713" s="7"/>
-    </row>
-    <row r="714" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E714" s="7"/>
-      <c r="I714" s="7"/>
-    </row>
-    <row r="715" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E715" s="7"/>
-      <c r="I715" s="7"/>
-    </row>
-    <row r="716" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E716" s="7"/>
-      <c r="I716" s="7"/>
-    </row>
-    <row r="717" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E717" s="7"/>
-      <c r="I717" s="7"/>
-    </row>
-    <row r="718" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E718" s="7"/>
-      <c r="I718" s="7"/>
-    </row>
-    <row r="719" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E719" s="7"/>
-      <c r="I719" s="7"/>
-    </row>
-    <row r="720" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E720" s="7"/>
-      <c r="I720" s="7"/>
-    </row>
-    <row r="721" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E721" s="7"/>
-      <c r="I721" s="7"/>
-    </row>
-    <row r="722" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E722" s="7"/>
-      <c r="I722" s="7"/>
-    </row>
-    <row r="723" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E723" s="7"/>
-      <c r="I723" s="7"/>
-    </row>
-    <row r="724" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E724" s="7"/>
-      <c r="I724" s="7"/>
-    </row>
-    <row r="725" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E725" s="7"/>
-      <c r="I725" s="7"/>
-    </row>
-    <row r="726" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E726" s="7"/>
-      <c r="I726" s="7"/>
-    </row>
-    <row r="727" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E727" s="7"/>
-      <c r="I727" s="7"/>
-    </row>
-    <row r="728" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E728" s="7"/>
-      <c r="I728" s="7"/>
-    </row>
-    <row r="729" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E729" s="7"/>
-      <c r="I729" s="7"/>
-    </row>
-    <row r="730" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E730" s="7"/>
-      <c r="I730" s="7"/>
-    </row>
-    <row r="731" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E731" s="7"/>
-      <c r="I731" s="7"/>
-    </row>
-    <row r="732" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E732" s="7"/>
-      <c r="I732" s="7"/>
-    </row>
-    <row r="733" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E733" s="7"/>
-      <c r="I733" s="7"/>
-    </row>
-    <row r="734" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E734" s="7"/>
-      <c r="I734" s="7"/>
-    </row>
-    <row r="735" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E735" s="7"/>
-      <c r="I735" s="7"/>
-    </row>
-    <row r="736" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E736" s="7"/>
-      <c r="I736" s="7"/>
-    </row>
-    <row r="737" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E737" s="7"/>
-      <c r="I737" s="7"/>
-    </row>
-    <row r="738" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E738" s="7"/>
-      <c r="I738" s="7"/>
-    </row>
-    <row r="739" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E739" s="7"/>
-      <c r="I739" s="7"/>
-    </row>
-    <row r="740" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E740" s="7"/>
-      <c r="I740" s="7"/>
-    </row>
-    <row r="741" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E741" s="7"/>
-      <c r="I741" s="7"/>
-    </row>
-    <row r="742" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E742" s="7"/>
-      <c r="I742" s="7"/>
-    </row>
-    <row r="743" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E743" s="7"/>
-      <c r="I743" s="7"/>
-    </row>
-    <row r="744" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E744" s="7"/>
-      <c r="I744" s="7"/>
-    </row>
-    <row r="745" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E745" s="7"/>
-      <c r="I745" s="7"/>
-    </row>
-    <row r="746" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E746" s="7"/>
-      <c r="I746" s="7"/>
-    </row>
-    <row r="747" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E747" s="7"/>
-      <c r="I747" s="7"/>
-    </row>
-    <row r="748" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E748" s="7"/>
-      <c r="I748" s="7"/>
-    </row>
-    <row r="749" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E749" s="7"/>
-      <c r="I749" s="7"/>
-    </row>
-    <row r="750" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E750" s="7"/>
-      <c r="I750" s="7"/>
-    </row>
-    <row r="751" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E751" s="7"/>
-      <c r="I751" s="7"/>
-    </row>
-    <row r="752" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E752" s="7"/>
-      <c r="I752" s="7"/>
-    </row>
-    <row r="753" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E753" s="7"/>
-      <c r="I753" s="7"/>
-    </row>
-    <row r="754" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E754" s="7"/>
-      <c r="I754" s="7"/>
-    </row>
-    <row r="755" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E755" s="7"/>
-      <c r="I755" s="7"/>
-    </row>
-    <row r="756" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E756" s="7"/>
-      <c r="I756" s="7"/>
-    </row>
-    <row r="757" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E757" s="7"/>
-      <c r="I757" s="7"/>
-    </row>
-    <row r="758" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E758" s="7"/>
-      <c r="I758" s="7"/>
-    </row>
-    <row r="759" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E759" s="7"/>
-      <c r="I759" s="7"/>
-    </row>
-    <row r="760" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E760" s="7"/>
-      <c r="I760" s="7"/>
-    </row>
-    <row r="761" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E761" s="7"/>
-      <c r="I761" s="7"/>
-    </row>
-    <row r="762" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E762" s="7"/>
-      <c r="I762" s="7"/>
-    </row>
-    <row r="763" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E763" s="7"/>
-      <c r="I763" s="7"/>
-    </row>
-    <row r="764" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E764" s="7"/>
-      <c r="I764" s="7"/>
-    </row>
-    <row r="765" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E765" s="7"/>
-      <c r="I765" s="7"/>
-    </row>
-    <row r="766" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E766" s="7"/>
-      <c r="I766" s="7"/>
-    </row>
-    <row r="767" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E767" s="7"/>
-      <c r="I767" s="7"/>
-    </row>
-    <row r="768" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E768" s="7"/>
-      <c r="I768" s="7"/>
-    </row>
-    <row r="769" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E769" s="7"/>
-      <c r="I769" s="7"/>
-    </row>
-    <row r="770" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E770" s="7"/>
-      <c r="I770" s="7"/>
-    </row>
-    <row r="771" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E771" s="7"/>
-      <c r="I771" s="7"/>
-    </row>
-    <row r="772" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E772" s="7"/>
-      <c r="I772" s="7"/>
-    </row>
-    <row r="773" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E773" s="7"/>
-      <c r="I773" s="7"/>
-    </row>
-    <row r="774" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E774" s="7"/>
-      <c r="I774" s="7"/>
-    </row>
-    <row r="775" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E775" s="7"/>
-      <c r="I775" s="7"/>
-    </row>
-    <row r="776" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E776" s="7"/>
-      <c r="I776" s="7"/>
-    </row>
-    <row r="777" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E777" s="7"/>
-      <c r="I777" s="7"/>
-    </row>
-    <row r="778" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E778" s="7"/>
-      <c r="I778" s="7"/>
-    </row>
-    <row r="779" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E779" s="7"/>
-      <c r="I779" s="7"/>
-    </row>
-    <row r="780" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E780" s="7"/>
-      <c r="I780" s="7"/>
-    </row>
-    <row r="781" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E781" s="7"/>
-      <c r="I781" s="7"/>
-    </row>
-    <row r="782" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E782" s="7"/>
-      <c r="I782" s="7"/>
-    </row>
-    <row r="783" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E783" s="7"/>
-      <c r="I783" s="7"/>
-    </row>
-    <row r="784" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E784" s="7"/>
-      <c r="I784" s="7"/>
-    </row>
-    <row r="785" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E785" s="7"/>
-      <c r="I785" s="7"/>
-    </row>
-    <row r="786" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E786" s="7"/>
-      <c r="I786" s="7"/>
-    </row>
-    <row r="787" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E787" s="7"/>
-      <c r="I787" s="7"/>
-    </row>
-    <row r="788" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E788" s="7"/>
-      <c r="I788" s="7"/>
-    </row>
-    <row r="789" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E789" s="7"/>
-      <c r="I789" s="7"/>
-    </row>
-    <row r="790" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E790" s="7"/>
-      <c r="I790" s="7"/>
-    </row>
-    <row r="791" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E791" s="7"/>
-      <c r="I791" s="7"/>
-    </row>
-    <row r="792" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E792" s="7"/>
-      <c r="I792" s="7"/>
-    </row>
-    <row r="793" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E793" s="7"/>
-      <c r="I793" s="7"/>
-    </row>
-    <row r="794" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E794" s="7"/>
-      <c r="I794" s="7"/>
-    </row>
-    <row r="795" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E795" s="7"/>
-      <c r="I795" s="7"/>
-    </row>
-    <row r="796" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E796" s="7"/>
-      <c r="I796" s="7"/>
-    </row>
-    <row r="797" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E797" s="7"/>
-      <c r="I797" s="7"/>
-    </row>
-    <row r="798" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E798" s="7"/>
-      <c r="I798" s="7"/>
-    </row>
-    <row r="799" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E799" s="7"/>
-      <c r="I799" s="7"/>
-    </row>
-    <row r="800" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E800" s="7"/>
-      <c r="I800" s="7"/>
-    </row>
-    <row r="801" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E801" s="7"/>
-      <c r="I801" s="7"/>
-    </row>
-    <row r="802" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E802" s="7"/>
-      <c r="I802" s="7"/>
-    </row>
-    <row r="803" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E803" s="7"/>
-      <c r="I803" s="7"/>
-    </row>
-    <row r="804" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E804" s="7"/>
-      <c r="I804" s="7"/>
-    </row>
-    <row r="805" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E805" s="7"/>
-      <c r="I805" s="7"/>
-    </row>
-    <row r="806" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E806" s="7"/>
-      <c r="I806" s="7"/>
-    </row>
-    <row r="807" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E807" s="7"/>
-      <c r="I807" s="7"/>
-    </row>
-    <row r="808" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E808" s="7"/>
-      <c r="I808" s="7"/>
-    </row>
-    <row r="809" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E809" s="7"/>
-      <c r="I809" s="7"/>
-    </row>
-    <row r="810" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E810" s="7"/>
-      <c r="I810" s="7"/>
-    </row>
-    <row r="811" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E811" s="7"/>
-      <c r="I811" s="7"/>
-    </row>
-    <row r="812" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E812" s="7"/>
-      <c r="I812" s="7"/>
-    </row>
-    <row r="813" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E813" s="7"/>
-      <c r="I813" s="7"/>
-    </row>
-    <row r="814" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E814" s="7"/>
-      <c r="I814" s="7"/>
-    </row>
-    <row r="815" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E815" s="7"/>
-      <c r="I815" s="7"/>
-    </row>
-    <row r="816" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E816" s="7"/>
-      <c r="I816" s="7"/>
-    </row>
-    <row r="817" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E817" s="7"/>
-      <c r="I817" s="7"/>
-    </row>
-    <row r="818" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E818" s="7"/>
-      <c r="I818" s="7"/>
-    </row>
-    <row r="819" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E819" s="7"/>
-      <c r="I819" s="7"/>
-    </row>
-    <row r="820" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E820" s="7"/>
-      <c r="I820" s="7"/>
-    </row>
-    <row r="821" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E821" s="7"/>
-      <c r="I821" s="7"/>
-    </row>
-    <row r="822" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E822" s="7"/>
-      <c r="I822" s="7"/>
-    </row>
-    <row r="823" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E823" s="7"/>
-      <c r="I823" s="7"/>
-    </row>
-    <row r="824" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E824" s="7"/>
-      <c r="I824" s="7"/>
-    </row>
-    <row r="825" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E825" s="7"/>
-      <c r="I825" s="7"/>
-    </row>
-    <row r="826" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E826" s="7"/>
-      <c r="I826" s="7"/>
-    </row>
-    <row r="827" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E827" s="7"/>
-      <c r="I827" s="7"/>
-    </row>
-    <row r="828" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E828" s="7"/>
-      <c r="I828" s="7"/>
-    </row>
-    <row r="829" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E829" s="7"/>
-      <c r="I829" s="7"/>
-    </row>
-    <row r="830" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E830" s="7"/>
-      <c r="I830" s="7"/>
-    </row>
-    <row r="831" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E831" s="7"/>
-      <c r="I831" s="7"/>
-    </row>
-    <row r="832" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E832" s="7"/>
-      <c r="I832" s="7"/>
-    </row>
-    <row r="833" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E833" s="7"/>
-      <c r="I833" s="7"/>
-    </row>
-    <row r="834" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E834" s="7"/>
-      <c r="I834" s="7"/>
-    </row>
-    <row r="835" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E835" s="7"/>
-      <c r="I835" s="7"/>
-    </row>
-    <row r="836" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E836" s="7"/>
-      <c r="I836" s="7"/>
-    </row>
-    <row r="837" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E837" s="7"/>
-      <c r="I837" s="7"/>
-    </row>
-    <row r="838" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E838" s="7"/>
-      <c r="I838" s="7"/>
-    </row>
-    <row r="839" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E839" s="7"/>
-      <c r="I839" s="7"/>
-    </row>
-    <row r="840" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E840" s="7"/>
-      <c r="I840" s="7"/>
-    </row>
-    <row r="841" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E841" s="7"/>
-      <c r="I841" s="7"/>
-    </row>
-    <row r="842" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E842" s="7"/>
-      <c r="I842" s="7"/>
-    </row>
-    <row r="843" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E843" s="7"/>
-      <c r="I843" s="7"/>
-    </row>
-    <row r="844" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E844" s="7"/>
-      <c r="I844" s="7"/>
-    </row>
-    <row r="845" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E845" s="7"/>
-      <c r="I845" s="7"/>
-    </row>
-    <row r="846" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E846" s="7"/>
-      <c r="I846" s="7"/>
-    </row>
-    <row r="847" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E847" s="7"/>
-      <c r="I847" s="7"/>
-    </row>
-    <row r="848" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E848" s="7"/>
-      <c r="I848" s="7"/>
-    </row>
-    <row r="849" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E849" s="7"/>
-      <c r="I849" s="7"/>
-    </row>
-    <row r="850" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E850" s="7"/>
-      <c r="I850" s="7"/>
-    </row>
-    <row r="851" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E851" s="7"/>
-      <c r="I851" s="7"/>
-    </row>
-    <row r="852" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E852" s="7"/>
-      <c r="I852" s="7"/>
-    </row>
-    <row r="853" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E853" s="7"/>
-      <c r="I853" s="7"/>
-    </row>
-    <row r="854" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E854" s="7"/>
-      <c r="I854" s="7"/>
-    </row>
-    <row r="855" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E855" s="7"/>
-      <c r="I855" s="7"/>
-    </row>
-    <row r="856" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E856" s="7"/>
-      <c r="I856" s="7"/>
-    </row>
-    <row r="857" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E857" s="7"/>
-      <c r="I857" s="7"/>
-    </row>
-    <row r="858" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E858" s="7"/>
-      <c r="I858" s="7"/>
-    </row>
-    <row r="859" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E859" s="7"/>
-      <c r="I859" s="7"/>
-    </row>
-    <row r="860" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E860" s="7"/>
-      <c r="I860" s="7"/>
-    </row>
-    <row r="861" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E861" s="7"/>
-      <c r="I861" s="7"/>
-    </row>
-    <row r="862" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E862" s="7"/>
-      <c r="I862" s="7"/>
-    </row>
-    <row r="863" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E863" s="7"/>
-      <c r="I863" s="7"/>
-    </row>
-    <row r="864" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E864" s="7"/>
-      <c r="I864" s="7"/>
-    </row>
-    <row r="865" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E865" s="7"/>
-      <c r="I865" s="7"/>
-    </row>
-    <row r="866" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E866" s="7"/>
-      <c r="I866" s="7"/>
-    </row>
-    <row r="867" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E867" s="7"/>
-      <c r="I867" s="7"/>
-    </row>
-    <row r="868" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E868" s="7"/>
-      <c r="I868" s="7"/>
-    </row>
-    <row r="869" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E869" s="7"/>
-      <c r="I869" s="7"/>
-    </row>
-    <row r="870" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E870" s="7"/>
-      <c r="I870" s="7"/>
-    </row>
-    <row r="871" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E871" s="7"/>
-      <c r="I871" s="7"/>
-    </row>
-    <row r="872" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E872" s="7"/>
-      <c r="I872" s="7"/>
-    </row>
-    <row r="873" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E873" s="7"/>
-      <c r="I873" s="7"/>
-    </row>
-    <row r="874" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E874" s="7"/>
-      <c r="I874" s="7"/>
-    </row>
-    <row r="875" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E875" s="7"/>
-      <c r="I875" s="7"/>
-    </row>
-    <row r="876" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E876" s="7"/>
-      <c r="I876" s="7"/>
-    </row>
-    <row r="877" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E877" s="7"/>
-      <c r="I877" s="7"/>
-    </row>
-    <row r="878" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E878" s="7"/>
-      <c r="I878" s="7"/>
-    </row>
-    <row r="879" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E879" s="7"/>
-      <c r="I879" s="7"/>
-    </row>
-    <row r="880" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E880" s="7"/>
-      <c r="I880" s="7"/>
-    </row>
-    <row r="881" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E881" s="7"/>
-      <c r="I881" s="7"/>
-    </row>
-    <row r="882" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E882" s="7"/>
-      <c r="I882" s="7"/>
-    </row>
-    <row r="883" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E883" s="7"/>
-      <c r="I883" s="7"/>
-    </row>
-    <row r="884" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E884" s="7"/>
-      <c r="I884" s="7"/>
-    </row>
-    <row r="885" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E885" s="7"/>
-      <c r="I885" s="7"/>
-    </row>
-    <row r="886" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E886" s="7"/>
-      <c r="I886" s="7"/>
-    </row>
-    <row r="887" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E887" s="7"/>
-      <c r="I887" s="7"/>
-    </row>
-    <row r="888" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E888" s="7"/>
-      <c r="I888" s="7"/>
-    </row>
-    <row r="889" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E889" s="7"/>
-      <c r="I889" s="7"/>
-    </row>
-    <row r="890" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E890" s="7"/>
-      <c r="I890" s="7"/>
-    </row>
-    <row r="891" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E891" s="7"/>
-      <c r="I891" s="7"/>
-    </row>
-    <row r="892" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E892" s="7"/>
-      <c r="I892" s="7"/>
-    </row>
-    <row r="893" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E893" s="7"/>
-      <c r="I893" s="7"/>
-    </row>
-    <row r="894" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E894" s="7"/>
-      <c r="I894" s="7"/>
-    </row>
-    <row r="895" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E895" s="7"/>
-      <c r="I895" s="7"/>
-    </row>
-    <row r="896" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E896" s="7"/>
-      <c r="I896" s="7"/>
-    </row>
-    <row r="897" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E897" s="7"/>
-      <c r="I897" s="7"/>
-    </row>
-    <row r="898" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E898" s="7"/>
-      <c r="I898" s="7"/>
-    </row>
-    <row r="899" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E899" s="7"/>
-      <c r="I899" s="7"/>
-    </row>
-    <row r="900" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E900" s="7"/>
-      <c r="I900" s="7"/>
-    </row>
-    <row r="901" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E901" s="7"/>
-      <c r="I901" s="7"/>
-    </row>
-    <row r="902" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E902" s="7"/>
-      <c r="I902" s="7"/>
-    </row>
-    <row r="903" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E903" s="7"/>
-      <c r="I903" s="7"/>
-    </row>
-    <row r="904" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E904" s="7"/>
-      <c r="I904" s="7"/>
-    </row>
-    <row r="905" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E905" s="7"/>
-      <c r="I905" s="7"/>
-    </row>
-    <row r="906" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E906" s="7"/>
-      <c r="I906" s="7"/>
-    </row>
-    <row r="907" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E907" s="7"/>
-      <c r="I907" s="7"/>
-    </row>
-    <row r="908" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E908" s="7"/>
-      <c r="I908" s="7"/>
-    </row>
-    <row r="909" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E909" s="7"/>
-      <c r="I909" s="7"/>
-    </row>
-    <row r="910" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E910" s="7"/>
-      <c r="I910" s="7"/>
-    </row>
-    <row r="911" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E911" s="7"/>
-      <c r="I911" s="7"/>
-    </row>
-    <row r="912" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E912" s="7"/>
-      <c r="I912" s="7"/>
-    </row>
-    <row r="913" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E913" s="7"/>
-      <c r="I913" s="7"/>
-    </row>
-    <row r="914" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E914" s="7"/>
-      <c r="I914" s="7"/>
-    </row>
-    <row r="915" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E915" s="7"/>
-      <c r="I915" s="7"/>
-    </row>
-    <row r="916" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E916" s="7"/>
-      <c r="I916" s="7"/>
-    </row>
-    <row r="917" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E917" s="7"/>
-      <c r="I917" s="7"/>
-    </row>
-    <row r="918" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E918" s="7"/>
-      <c r="I918" s="7"/>
-    </row>
-    <row r="919" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E919" s="7"/>
-      <c r="I919" s="7"/>
-    </row>
-    <row r="920" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E920" s="7"/>
-      <c r="I920" s="7"/>
-    </row>
-    <row r="921" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E921" s="7"/>
-      <c r="I921" s="7"/>
-    </row>
-    <row r="922" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E922" s="7"/>
-      <c r="I922" s="7"/>
-    </row>
-    <row r="923" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E923" s="7"/>
-      <c r="I923" s="7"/>
-    </row>
-    <row r="924" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E924" s="7"/>
-      <c r="I924" s="7"/>
-    </row>
-    <row r="925" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E925" s="7"/>
-      <c r="I925" s="7"/>
-    </row>
-    <row r="926" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E926" s="7"/>
-      <c r="I926" s="7"/>
-    </row>
-    <row r="927" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E927" s="7"/>
-      <c r="I927" s="7"/>
-    </row>
-    <row r="928" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E928" s="7"/>
-      <c r="I928" s="7"/>
-    </row>
-    <row r="929" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E929" s="7"/>
-      <c r="I929" s="7"/>
-    </row>
-    <row r="930" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E930" s="7"/>
-      <c r="I930" s="7"/>
-    </row>
-    <row r="931" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E931" s="7"/>
-      <c r="I931" s="7"/>
-    </row>
-    <row r="932" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E932" s="7"/>
-      <c r="I932" s="7"/>
-    </row>
-    <row r="933" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E933" s="7"/>
-      <c r="I933" s="7"/>
-    </row>
-    <row r="934" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E934" s="7"/>
-      <c r="I934" s="7"/>
-    </row>
-    <row r="935" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E935" s="7"/>
-      <c r="I935" s="7"/>
-    </row>
-    <row r="936" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E936" s="7"/>
-      <c r="I936" s="7"/>
-    </row>
-    <row r="937" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E937" s="7"/>
-      <c r="I937" s="7"/>
-    </row>
-    <row r="938" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E938" s="7"/>
-      <c r="I938" s="7"/>
-    </row>
-    <row r="939" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E939" s="7"/>
-      <c r="I939" s="7"/>
-    </row>
-    <row r="940" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E940" s="7"/>
-      <c r="I940" s="7"/>
-    </row>
-    <row r="941" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E941" s="7"/>
-      <c r="I941" s="7"/>
-    </row>
-    <row r="942" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E942" s="7"/>
-      <c r="I942" s="7"/>
-    </row>
-    <row r="943" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E943" s="7"/>
-      <c r="I943" s="7"/>
-    </row>
-    <row r="944" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E944" s="7"/>
-      <c r="I944" s="7"/>
-    </row>
-    <row r="945" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E945" s="7"/>
-      <c r="I945" s="7"/>
-    </row>
-    <row r="946" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E946" s="7"/>
-      <c r="I946" s="7"/>
-    </row>
-    <row r="947" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E947" s="7"/>
-      <c r="I947" s="7"/>
-    </row>
-    <row r="948" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E948" s="7"/>
-      <c r="I948" s="7"/>
-    </row>
-    <row r="949" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E949" s="7"/>
-      <c r="I949" s="7"/>
-    </row>
-    <row r="950" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E950" s="7"/>
-      <c r="I950" s="7"/>
-    </row>
-    <row r="951" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E951" s="7"/>
-      <c r="I951" s="7"/>
-    </row>
-    <row r="952" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E952" s="7"/>
-      <c r="I952" s="7"/>
-    </row>
-    <row r="953" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E953" s="7"/>
-      <c r="I953" s="7"/>
-    </row>
-    <row r="954" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E954" s="7"/>
-      <c r="I954" s="7"/>
-    </row>
-    <row r="955" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E955" s="7"/>
-      <c r="I955" s="7"/>
-    </row>
-    <row r="956" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E956" s="7"/>
-      <c r="I956" s="7"/>
-    </row>
-    <row r="957" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E957" s="7"/>
-      <c r="I957" s="7"/>
-    </row>
-    <row r="958" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E958" s="7"/>
-      <c r="I958" s="7"/>
-    </row>
-    <row r="959" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E959" s="7"/>
-      <c r="I959" s="7"/>
-    </row>
-    <row r="960" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E960" s="7"/>
-      <c r="I960" s="7"/>
-    </row>
-    <row r="961" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E961" s="7"/>
-      <c r="I961" s="7"/>
-    </row>
-    <row r="962" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E962" s="7"/>
-      <c r="I962" s="7"/>
-    </row>
-    <row r="963" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E963" s="7"/>
-      <c r="I963" s="7"/>
-    </row>
-    <row r="964" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E964" s="7"/>
-      <c r="I964" s="7"/>
-    </row>
-    <row r="965" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E965" s="7"/>
-      <c r="I965" s="7"/>
-    </row>
-    <row r="966" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E966" s="7"/>
-      <c r="I966" s="7"/>
-    </row>
-    <row r="967" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E967" s="7"/>
-      <c r="I967" s="7"/>
-    </row>
-    <row r="968" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E968" s="7"/>
-      <c r="I968" s="7"/>
-    </row>
-    <row r="969" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E969" s="7"/>
-      <c r="I969" s="7"/>
-    </row>
-    <row r="970" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E970" s="7"/>
-      <c r="I970" s="7"/>
-    </row>
-    <row r="971" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E971" s="7"/>
-      <c r="I971" s="7"/>
-    </row>
-    <row r="972" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E972" s="7"/>
-      <c r="I972" s="7"/>
-    </row>
-    <row r="973" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E973" s="7"/>
-      <c r="I973" s="7"/>
-    </row>
-    <row r="974" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E974" s="7"/>
-      <c r="I974" s="7"/>
-    </row>
-    <row r="975" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E975" s="7"/>
-      <c r="I975" s="7"/>
-    </row>
-    <row r="976" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E976" s="7"/>
-      <c r="I976" s="7"/>
-    </row>
-    <row r="977" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E977" s="7"/>
-      <c r="I977" s="7"/>
-    </row>
-    <row r="978" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E978" s="7"/>
-      <c r="I978" s="7"/>
-    </row>
-    <row r="979" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E979" s="7"/>
-      <c r="I979" s="7"/>
-    </row>
-    <row r="980" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E980" s="7"/>
-      <c r="I980" s="7"/>
-    </row>
-    <row r="981" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E981" s="7"/>
-      <c r="I981" s="7"/>
-    </row>
-    <row r="982" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E982" s="7"/>
-      <c r="I982" s="7"/>
-    </row>
-    <row r="983" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E983" s="7"/>
-      <c r="I983" s="7"/>
-    </row>
-    <row r="984" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E984" s="7"/>
-      <c r="I984" s="7"/>
-    </row>
-    <row r="985" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E985" s="7"/>
-      <c r="I985" s="7"/>
-    </row>
-    <row r="986" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E986" s="7"/>
-      <c r="I986" s="7"/>
-    </row>
-    <row r="987" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E987" s="7"/>
-      <c r="I987" s="7"/>
-    </row>
-    <row r="988" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E988" s="7"/>
-      <c r="I988" s="7"/>
-    </row>
-    <row r="989" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E989" s="7"/>
-      <c r="I989" s="7"/>
-    </row>
-    <row r="990" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E990" s="7"/>
-      <c r="I990" s="7"/>
-    </row>
-    <row r="991" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E991" s="7"/>
-      <c r="I991" s="7"/>
-    </row>
-    <row r="992" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E992" s="7"/>
-      <c r="I992" s="7"/>
-    </row>
-    <row r="993" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E993" s="7"/>
-      <c r="I993" s="7"/>
-    </row>
-    <row r="994" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E994" s="7"/>
-      <c r="I994" s="7"/>
-    </row>
-    <row r="995" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E995" s="7"/>
-      <c r="I995" s="7"/>
-    </row>
-    <row r="996" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E996" s="7"/>
-      <c r="I996" s="7"/>
-    </row>
-    <row r="997" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E997" s="7"/>
-      <c r="I997" s="7"/>
-    </row>
-    <row r="998" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E998" s="7"/>
-      <c r="I998" s="7"/>
-    </row>
-    <row r="999" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E999" s="7"/>
-      <c r="I999" s="7"/>
-    </row>
-    <row r="1000" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E1000" s="7"/>
-      <c r="I1000" s="7"/>
+    <row r="216" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E216" s="6"/>
+      <c r="I216" s="6"/>
+    </row>
+    <row r="217" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E217" s="6"/>
+      <c r="I217" s="6"/>
+    </row>
+    <row r="218" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E218" s="6"/>
+      <c r="I218" s="6"/>
+    </row>
+    <row r="219" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E219" s="6"/>
+      <c r="I219" s="6"/>
+    </row>
+    <row r="220" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E220" s="6"/>
+      <c r="I220" s="6"/>
+    </row>
+    <row r="221" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E221" s="6"/>
+      <c r="I221" s="6"/>
+    </row>
+    <row r="222" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E222" s="6"/>
+      <c r="I222" s="6"/>
+    </row>
+    <row r="223" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E223" s="6"/>
+      <c r="I223" s="6"/>
+    </row>
+    <row r="224" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E224" s="6"/>
+      <c r="I224" s="6"/>
+    </row>
+    <row r="225" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E225" s="6"/>
+      <c r="I225" s="6"/>
+    </row>
+    <row r="226" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E226" s="6"/>
+      <c r="I226" s="6"/>
+    </row>
+    <row r="227" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E227" s="6"/>
+      <c r="I227" s="6"/>
+    </row>
+    <row r="228" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E228" s="6"/>
+      <c r="I228" s="6"/>
+    </row>
+    <row r="229" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E229" s="6"/>
+      <c r="I229" s="6"/>
+    </row>
+    <row r="230" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E230" s="6"/>
+      <c r="I230" s="6"/>
+    </row>
+    <row r="231" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E231" s="6"/>
+      <c r="I231" s="6"/>
+    </row>
+    <row r="232" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E232" s="6"/>
+      <c r="I232" s="6"/>
+    </row>
+    <row r="233" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E233" s="6"/>
+      <c r="I233" s="6"/>
+    </row>
+    <row r="234" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E234" s="6"/>
+      <c r="I234" s="6"/>
+    </row>
+    <row r="235" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E235" s="6"/>
+      <c r="I235" s="6"/>
+    </row>
+    <row r="236" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E236" s="6"/>
+      <c r="I236" s="6"/>
+    </row>
+    <row r="237" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E237" s="6"/>
+      <c r="I237" s="6"/>
+    </row>
+    <row r="238" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E238" s="6"/>
+      <c r="I238" s="6"/>
+    </row>
+    <row r="239" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E239" s="6"/>
+      <c r="I239" s="6"/>
+    </row>
+    <row r="240" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E240" s="6"/>
+      <c r="I240" s="6"/>
+    </row>
+    <row r="241" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E241" s="6"/>
+      <c r="I241" s="6"/>
+    </row>
+    <row r="242" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E242" s="6"/>
+      <c r="I242" s="6"/>
+    </row>
+    <row r="243" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E243" s="6"/>
+      <c r="I243" s="6"/>
+    </row>
+    <row r="244" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E244" s="6"/>
+      <c r="I244" s="6"/>
+    </row>
+    <row r="245" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E245" s="6"/>
+      <c r="I245" s="6"/>
+    </row>
+    <row r="246" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E246" s="6"/>
+      <c r="I246" s="6"/>
+    </row>
+    <row r="247" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E247" s="6"/>
+      <c r="I247" s="6"/>
+    </row>
+    <row r="248" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E248" s="6"/>
+      <c r="I248" s="6"/>
+    </row>
+    <row r="249" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E249" s="6"/>
+      <c r="I249" s="6"/>
+    </row>
+    <row r="250" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E250" s="6"/>
+      <c r="I250" s="6"/>
+    </row>
+    <row r="251" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E251" s="6"/>
+      <c r="I251" s="6"/>
+    </row>
+    <row r="252" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E252" s="6"/>
+      <c r="I252" s="6"/>
+    </row>
+    <row r="253" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E253" s="6"/>
+      <c r="I253" s="6"/>
+    </row>
+    <row r="254" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E254" s="6"/>
+      <c r="I254" s="6"/>
+    </row>
+    <row r="255" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E255" s="6"/>
+      <c r="I255" s="6"/>
+    </row>
+    <row r="256" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E256" s="6"/>
+      <c r="I256" s="6"/>
+    </row>
+    <row r="257" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E257" s="6"/>
+      <c r="I257" s="6"/>
+    </row>
+    <row r="258" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E258" s="6"/>
+      <c r="I258" s="6"/>
+    </row>
+    <row r="259" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E259" s="6"/>
+      <c r="I259" s="6"/>
+    </row>
+    <row r="260" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E260" s="6"/>
+      <c r="I260" s="6"/>
+    </row>
+    <row r="261" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E261" s="6"/>
+      <c r="I261" s="6"/>
+    </row>
+    <row r="262" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E262" s="6"/>
+      <c r="I262" s="6"/>
+    </row>
+    <row r="263" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E263" s="6"/>
+      <c r="I263" s="6"/>
+    </row>
+    <row r="264" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E264" s="6"/>
+      <c r="I264" s="6"/>
+    </row>
+    <row r="265" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E265" s="6"/>
+      <c r="I265" s="6"/>
+    </row>
+    <row r="266" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E266" s="6"/>
+      <c r="I266" s="6"/>
+    </row>
+    <row r="267" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E267" s="6"/>
+      <c r="I267" s="6"/>
+    </row>
+    <row r="268" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E268" s="6"/>
+      <c r="I268" s="6"/>
+    </row>
+    <row r="269" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E269" s="6"/>
+      <c r="I269" s="6"/>
+    </row>
+    <row r="270" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E270" s="6"/>
+      <c r="I270" s="6"/>
+    </row>
+    <row r="271" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E271" s="6"/>
+      <c r="I271" s="6"/>
+    </row>
+    <row r="272" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E272" s="6"/>
+      <c r="I272" s="6"/>
+    </row>
+    <row r="273" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E273" s="6"/>
+      <c r="I273" s="6"/>
+    </row>
+    <row r="274" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E274" s="6"/>
+      <c r="I274" s="6"/>
+    </row>
+    <row r="275" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E275" s="6"/>
+      <c r="I275" s="6"/>
+    </row>
+    <row r="276" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E276" s="6"/>
+      <c r="I276" s="6"/>
+    </row>
+    <row r="277" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E277" s="6"/>
+      <c r="I277" s="6"/>
+    </row>
+    <row r="278" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E278" s="6"/>
+      <c r="I278" s="6"/>
+    </row>
+    <row r="279" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E279" s="6"/>
+      <c r="I279" s="6"/>
+    </row>
+    <row r="280" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E280" s="6"/>
+      <c r="I280" s="6"/>
+    </row>
+    <row r="281" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E281" s="6"/>
+      <c r="I281" s="6"/>
+    </row>
+    <row r="282" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E282" s="6"/>
+      <c r="I282" s="6"/>
+    </row>
+    <row r="283" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E283" s="6"/>
+      <c r="I283" s="6"/>
+    </row>
+    <row r="284" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E284" s="6"/>
+      <c r="I284" s="6"/>
+    </row>
+    <row r="285" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E285" s="6"/>
+      <c r="I285" s="6"/>
+    </row>
+    <row r="286" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E286" s="6"/>
+      <c r="I286" s="6"/>
+    </row>
+    <row r="287" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E287" s="6"/>
+      <c r="I287" s="6"/>
+    </row>
+    <row r="288" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E288" s="6"/>
+      <c r="I288" s="6"/>
+    </row>
+    <row r="289" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E289" s="6"/>
+      <c r="I289" s="6"/>
+    </row>
+    <row r="290" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E290" s="6"/>
+      <c r="I290" s="6"/>
+    </row>
+    <row r="291" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E291" s="6"/>
+      <c r="I291" s="6"/>
+    </row>
+    <row r="292" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E292" s="6"/>
+      <c r="I292" s="6"/>
+    </row>
+    <row r="293" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E293" s="6"/>
+      <c r="I293" s="6"/>
+    </row>
+    <row r="294" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E294" s="6"/>
+      <c r="I294" s="6"/>
+    </row>
+    <row r="295" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E295" s="6"/>
+      <c r="I295" s="6"/>
+    </row>
+    <row r="296" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E296" s="6"/>
+      <c r="I296" s="6"/>
+    </row>
+    <row r="297" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E297" s="6"/>
+      <c r="I297" s="6"/>
+    </row>
+    <row r="298" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E298" s="6"/>
+      <c r="I298" s="6"/>
+    </row>
+    <row r="299" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E299" s="6"/>
+      <c r="I299" s="6"/>
+    </row>
+    <row r="300" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E300" s="6"/>
+      <c r="I300" s="6"/>
+    </row>
+    <row r="301" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E301" s="6"/>
+      <c r="I301" s="6"/>
+    </row>
+    <row r="302" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E302" s="6"/>
+      <c r="I302" s="6"/>
+    </row>
+    <row r="303" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E303" s="6"/>
+      <c r="I303" s="6"/>
+    </row>
+    <row r="304" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E304" s="6"/>
+      <c r="I304" s="6"/>
+    </row>
+    <row r="305" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E305" s="6"/>
+      <c r="I305" s="6"/>
+    </row>
+    <row r="306" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E306" s="6"/>
+      <c r="I306" s="6"/>
+    </row>
+    <row r="307" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E307" s="6"/>
+      <c r="I307" s="6"/>
+    </row>
+    <row r="308" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E308" s="6"/>
+      <c r="I308" s="6"/>
+    </row>
+    <row r="309" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E309" s="6"/>
+      <c r="I309" s="6"/>
+    </row>
+    <row r="310" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E310" s="6"/>
+      <c r="I310" s="6"/>
+    </row>
+    <row r="311" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E311" s="6"/>
+      <c r="I311" s="6"/>
+    </row>
+    <row r="312" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E312" s="6"/>
+      <c r="I312" s="6"/>
+    </row>
+    <row r="313" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E313" s="6"/>
+      <c r="I313" s="6"/>
+    </row>
+    <row r="314" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E314" s="6"/>
+      <c r="I314" s="6"/>
+    </row>
+    <row r="315" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E315" s="6"/>
+      <c r="I315" s="6"/>
+    </row>
+    <row r="316" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E316" s="6"/>
+      <c r="I316" s="6"/>
+    </row>
+    <row r="317" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E317" s="6"/>
+      <c r="I317" s="6"/>
+    </row>
+    <row r="318" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E318" s="6"/>
+      <c r="I318" s="6"/>
+    </row>
+    <row r="319" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E319" s="6"/>
+      <c r="I319" s="6"/>
+    </row>
+    <row r="320" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E320" s="6"/>
+      <c r="I320" s="6"/>
+    </row>
+    <row r="321" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E321" s="6"/>
+      <c r="I321" s="6"/>
+    </row>
+    <row r="322" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E322" s="6"/>
+      <c r="I322" s="6"/>
+    </row>
+    <row r="323" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E323" s="6"/>
+      <c r="I323" s="6"/>
+    </row>
+    <row r="324" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E324" s="6"/>
+      <c r="I324" s="6"/>
+    </row>
+    <row r="325" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E325" s="6"/>
+      <c r="I325" s="6"/>
+    </row>
+    <row r="326" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E326" s="6"/>
+      <c r="I326" s="6"/>
+    </row>
+    <row r="327" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E327" s="6"/>
+      <c r="I327" s="6"/>
+    </row>
+    <row r="328" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E328" s="6"/>
+      <c r="I328" s="6"/>
+    </row>
+    <row r="329" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E329" s="6"/>
+      <c r="I329" s="6"/>
+    </row>
+    <row r="330" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E330" s="6"/>
+      <c r="I330" s="6"/>
+    </row>
+    <row r="331" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E331" s="6"/>
+      <c r="I331" s="6"/>
+    </row>
+    <row r="332" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E332" s="6"/>
+      <c r="I332" s="6"/>
+    </row>
+    <row r="333" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E333" s="6"/>
+      <c r="I333" s="6"/>
+    </row>
+    <row r="334" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E334" s="6"/>
+      <c r="I334" s="6"/>
+    </row>
+    <row r="335" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E335" s="6"/>
+      <c r="I335" s="6"/>
+    </row>
+    <row r="336" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E336" s="6"/>
+      <c r="I336" s="6"/>
+    </row>
+    <row r="337" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E337" s="6"/>
+      <c r="I337" s="6"/>
+    </row>
+    <row r="338" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E338" s="6"/>
+      <c r="I338" s="6"/>
+    </row>
+    <row r="339" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E339" s="6"/>
+      <c r="I339" s="6"/>
+    </row>
+    <row r="340" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E340" s="6"/>
+      <c r="I340" s="6"/>
+    </row>
+    <row r="341" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E341" s="6"/>
+      <c r="I341" s="6"/>
+    </row>
+    <row r="342" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E342" s="6"/>
+      <c r="I342" s="6"/>
+    </row>
+    <row r="343" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E343" s="6"/>
+      <c r="I343" s="6"/>
+    </row>
+    <row r="344" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E344" s="6"/>
+      <c r="I344" s="6"/>
+    </row>
+    <row r="345" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E345" s="6"/>
+      <c r="I345" s="6"/>
+    </row>
+    <row r="346" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E346" s="6"/>
+      <c r="I346" s="6"/>
+    </row>
+    <row r="347" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E347" s="6"/>
+      <c r="I347" s="6"/>
+    </row>
+    <row r="348" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E348" s="6"/>
+      <c r="I348" s="6"/>
+    </row>
+    <row r="349" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E349" s="6"/>
+      <c r="I349" s="6"/>
+    </row>
+    <row r="350" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E350" s="6"/>
+      <c r="I350" s="6"/>
+    </row>
+    <row r="351" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E351" s="6"/>
+      <c r="I351" s="6"/>
+    </row>
+    <row r="352" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E352" s="6"/>
+      <c r="I352" s="6"/>
+    </row>
+    <row r="353" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E353" s="6"/>
+      <c r="I353" s="6"/>
+    </row>
+    <row r="354" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E354" s="6"/>
+      <c r="I354" s="6"/>
+    </row>
+    <row r="355" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E355" s="6"/>
+      <c r="I355" s="6"/>
+    </row>
+    <row r="356" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E356" s="6"/>
+      <c r="I356" s="6"/>
+    </row>
+    <row r="357" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E357" s="6"/>
+      <c r="I357" s="6"/>
+    </row>
+    <row r="358" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E358" s="6"/>
+      <c r="I358" s="6"/>
+    </row>
+    <row r="359" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E359" s="6"/>
+      <c r="I359" s="6"/>
+    </row>
+    <row r="360" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E360" s="6"/>
+      <c r="I360" s="6"/>
+    </row>
+    <row r="361" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E361" s="6"/>
+      <c r="I361" s="6"/>
+    </row>
+    <row r="362" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E362" s="6"/>
+      <c r="I362" s="6"/>
+    </row>
+    <row r="363" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E363" s="6"/>
+      <c r="I363" s="6"/>
+    </row>
+    <row r="364" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E364" s="6"/>
+      <c r="I364" s="6"/>
+    </row>
+    <row r="365" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E365" s="6"/>
+      <c r="I365" s="6"/>
+    </row>
+    <row r="366" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E366" s="6"/>
+      <c r="I366" s="6"/>
+    </row>
+    <row r="367" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E367" s="6"/>
+      <c r="I367" s="6"/>
+    </row>
+    <row r="368" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E368" s="6"/>
+      <c r="I368" s="6"/>
+    </row>
+    <row r="369" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E369" s="6"/>
+      <c r="I369" s="6"/>
+    </row>
+    <row r="370" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E370" s="6"/>
+      <c r="I370" s="6"/>
+    </row>
+    <row r="371" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E371" s="6"/>
+      <c r="I371" s="6"/>
+    </row>
+    <row r="372" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E372" s="6"/>
+      <c r="I372" s="6"/>
+    </row>
+    <row r="373" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E373" s="6"/>
+      <c r="I373" s="6"/>
+    </row>
+    <row r="374" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E374" s="6"/>
+      <c r="I374" s="6"/>
+    </row>
+    <row r="375" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E375" s="6"/>
+      <c r="I375" s="6"/>
+    </row>
+    <row r="376" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E376" s="6"/>
+      <c r="I376" s="6"/>
+    </row>
+    <row r="377" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E377" s="6"/>
+      <c r="I377" s="6"/>
+    </row>
+    <row r="378" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E378" s="6"/>
+      <c r="I378" s="6"/>
+    </row>
+    <row r="379" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E379" s="6"/>
+      <c r="I379" s="6"/>
+    </row>
+    <row r="380" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E380" s="6"/>
+      <c r="I380" s="6"/>
+    </row>
+    <row r="381" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E381" s="6"/>
+      <c r="I381" s="6"/>
+    </row>
+    <row r="382" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E382" s="6"/>
+      <c r="I382" s="6"/>
+    </row>
+    <row r="383" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E383" s="6"/>
+      <c r="I383" s="6"/>
+    </row>
+    <row r="384" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E384" s="6"/>
+      <c r="I384" s="6"/>
+    </row>
+    <row r="385" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E385" s="6"/>
+      <c r="I385" s="6"/>
+    </row>
+    <row r="386" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E386" s="6"/>
+      <c r="I386" s="6"/>
+    </row>
+    <row r="387" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E387" s="6"/>
+      <c r="I387" s="6"/>
+    </row>
+    <row r="388" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E388" s="6"/>
+      <c r="I388" s="6"/>
+    </row>
+    <row r="389" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E389" s="6"/>
+      <c r="I389" s="6"/>
+    </row>
+    <row r="390" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E390" s="6"/>
+      <c r="I390" s="6"/>
+    </row>
+    <row r="391" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E391" s="6"/>
+      <c r="I391" s="6"/>
+    </row>
+    <row r="392" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E392" s="6"/>
+      <c r="I392" s="6"/>
+    </row>
+    <row r="393" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E393" s="6"/>
+      <c r="I393" s="6"/>
+    </row>
+    <row r="394" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E394" s="6"/>
+      <c r="I394" s="6"/>
+    </row>
+    <row r="395" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E395" s="6"/>
+      <c r="I395" s="6"/>
+    </row>
+    <row r="396" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E396" s="6"/>
+      <c r="I396" s="6"/>
+    </row>
+    <row r="397" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E397" s="6"/>
+      <c r="I397" s="6"/>
+    </row>
+    <row r="398" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E398" s="6"/>
+      <c r="I398" s="6"/>
+    </row>
+    <row r="399" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E399" s="6"/>
+      <c r="I399" s="6"/>
+    </row>
+    <row r="400" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E400" s="6"/>
+      <c r="I400" s="6"/>
+    </row>
+    <row r="401" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E401" s="6"/>
+      <c r="I401" s="6"/>
+    </row>
+    <row r="402" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E402" s="6"/>
+      <c r="I402" s="6"/>
+    </row>
+    <row r="403" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E403" s="6"/>
+      <c r="I403" s="6"/>
+    </row>
+    <row r="404" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E404" s="6"/>
+      <c r="I404" s="6"/>
+    </row>
+    <row r="405" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E405" s="6"/>
+      <c r="I405" s="6"/>
+    </row>
+    <row r="406" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E406" s="6"/>
+      <c r="I406" s="6"/>
+    </row>
+    <row r="407" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E407" s="6"/>
+      <c r="I407" s="6"/>
+    </row>
+    <row r="408" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E408" s="6"/>
+      <c r="I408" s="6"/>
+    </row>
+    <row r="409" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E409" s="6"/>
+      <c r="I409" s="6"/>
+    </row>
+    <row r="410" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E410" s="6"/>
+      <c r="I410" s="6"/>
+    </row>
+    <row r="411" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E411" s="6"/>
+      <c r="I411" s="6"/>
+    </row>
+    <row r="412" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E412" s="6"/>
+      <c r="I412" s="6"/>
+    </row>
+    <row r="413" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E413" s="6"/>
+      <c r="I413" s="6"/>
+    </row>
+    <row r="414" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E414" s="6"/>
+      <c r="I414" s="6"/>
+    </row>
+    <row r="415" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E415" s="6"/>
+      <c r="I415" s="6"/>
+    </row>
+    <row r="416" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E416" s="6"/>
+      <c r="I416" s="6"/>
+    </row>
+    <row r="417" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E417" s="6"/>
+      <c r="I417" s="6"/>
+    </row>
+    <row r="418" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E418" s="6"/>
+      <c r="I418" s="6"/>
+    </row>
+    <row r="419" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E419" s="6"/>
+      <c r="I419" s="6"/>
+    </row>
+    <row r="420" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E420" s="6"/>
+      <c r="I420" s="6"/>
+    </row>
+    <row r="421" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E421" s="6"/>
+      <c r="I421" s="6"/>
+    </row>
+    <row r="422" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E422" s="6"/>
+      <c r="I422" s="6"/>
+    </row>
+    <row r="423" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E423" s="6"/>
+      <c r="I423" s="6"/>
+    </row>
+    <row r="424" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E424" s="6"/>
+      <c r="I424" s="6"/>
+    </row>
+    <row r="425" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E425" s="6"/>
+      <c r="I425" s="6"/>
+    </row>
+    <row r="426" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E426" s="6"/>
+      <c r="I426" s="6"/>
+    </row>
+    <row r="427" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E427" s="6"/>
+      <c r="I427" s="6"/>
+    </row>
+    <row r="428" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E428" s="6"/>
+      <c r="I428" s="6"/>
+    </row>
+    <row r="429" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E429" s="6"/>
+      <c r="I429" s="6"/>
+    </row>
+    <row r="430" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E430" s="6"/>
+      <c r="I430" s="6"/>
+    </row>
+    <row r="431" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E431" s="6"/>
+      <c r="I431" s="6"/>
+    </row>
+    <row r="432" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E432" s="6"/>
+      <c r="I432" s="6"/>
+    </row>
+    <row r="433" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E433" s="6"/>
+      <c r="I433" s="6"/>
+    </row>
+    <row r="434" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E434" s="6"/>
+      <c r="I434" s="6"/>
+    </row>
+    <row r="435" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E435" s="6"/>
+      <c r="I435" s="6"/>
+    </row>
+    <row r="436" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E436" s="6"/>
+      <c r="I436" s="6"/>
+    </row>
+    <row r="437" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E437" s="6"/>
+      <c r="I437" s="6"/>
+    </row>
+    <row r="438" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E438" s="6"/>
+      <c r="I438" s="6"/>
+    </row>
+    <row r="439" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E439" s="6"/>
+      <c r="I439" s="6"/>
+    </row>
+    <row r="440" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E440" s="6"/>
+      <c r="I440" s="6"/>
+    </row>
+    <row r="441" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E441" s="6"/>
+      <c r="I441" s="6"/>
+    </row>
+    <row r="442" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E442" s="6"/>
+      <c r="I442" s="6"/>
+    </row>
+    <row r="443" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E443" s="6"/>
+      <c r="I443" s="6"/>
+    </row>
+    <row r="444" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E444" s="6"/>
+      <c r="I444" s="6"/>
+    </row>
+    <row r="445" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E445" s="6"/>
+      <c r="I445" s="6"/>
+    </row>
+    <row r="446" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E446" s="6"/>
+      <c r="I446" s="6"/>
+    </row>
+    <row r="447" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E447" s="6"/>
+      <c r="I447" s="6"/>
+    </row>
+    <row r="448" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E448" s="6"/>
+      <c r="I448" s="6"/>
+    </row>
+    <row r="449" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E449" s="6"/>
+      <c r="I449" s="6"/>
+    </row>
+    <row r="450" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E450" s="6"/>
+      <c r="I450" s="6"/>
+    </row>
+    <row r="451" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E451" s="6"/>
+      <c r="I451" s="6"/>
+    </row>
+    <row r="452" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E452" s="6"/>
+      <c r="I452" s="6"/>
+    </row>
+    <row r="453" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E453" s="6"/>
+      <c r="I453" s="6"/>
+    </row>
+    <row r="454" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E454" s="6"/>
+      <c r="I454" s="6"/>
+    </row>
+    <row r="455" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E455" s="6"/>
+      <c r="I455" s="6"/>
+    </row>
+    <row r="456" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E456" s="6"/>
+      <c r="I456" s="6"/>
+    </row>
+    <row r="457" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E457" s="6"/>
+      <c r="I457" s="6"/>
+    </row>
+    <row r="458" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E458" s="6"/>
+      <c r="I458" s="6"/>
+    </row>
+    <row r="459" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E459" s="6"/>
+      <c r="I459" s="6"/>
+    </row>
+    <row r="460" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E460" s="6"/>
+      <c r="I460" s="6"/>
+    </row>
+    <row r="461" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E461" s="6"/>
+      <c r="I461" s="6"/>
+    </row>
+    <row r="462" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E462" s="6"/>
+      <c r="I462" s="6"/>
+    </row>
+    <row r="463" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E463" s="6"/>
+      <c r="I463" s="6"/>
+    </row>
+    <row r="464" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E464" s="6"/>
+      <c r="I464" s="6"/>
+    </row>
+    <row r="465" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E465" s="6"/>
+      <c r="I465" s="6"/>
+    </row>
+    <row r="466" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E466" s="6"/>
+      <c r="I466" s="6"/>
+    </row>
+    <row r="467" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E467" s="6"/>
+      <c r="I467" s="6"/>
+    </row>
+    <row r="468" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E468" s="6"/>
+      <c r="I468" s="6"/>
+    </row>
+    <row r="469" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E469" s="6"/>
+      <c r="I469" s="6"/>
+    </row>
+    <row r="470" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E470" s="6"/>
+      <c r="I470" s="6"/>
+    </row>
+    <row r="471" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E471" s="6"/>
+      <c r="I471" s="6"/>
+    </row>
+    <row r="472" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E472" s="6"/>
+      <c r="I472" s="6"/>
+    </row>
+    <row r="473" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E473" s="6"/>
+      <c r="I473" s="6"/>
+    </row>
+    <row r="474" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E474" s="6"/>
+      <c r="I474" s="6"/>
+    </row>
+    <row r="475" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E475" s="6"/>
+      <c r="I475" s="6"/>
+    </row>
+    <row r="476" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E476" s="6"/>
+      <c r="I476" s="6"/>
+    </row>
+    <row r="477" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E477" s="6"/>
+      <c r="I477" s="6"/>
+    </row>
+    <row r="478" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E478" s="6"/>
+      <c r="I478" s="6"/>
+    </row>
+    <row r="479" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E479" s="6"/>
+      <c r="I479" s="6"/>
+    </row>
+    <row r="480" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E480" s="6"/>
+      <c r="I480" s="6"/>
+    </row>
+    <row r="481" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E481" s="6"/>
+      <c r="I481" s="6"/>
+    </row>
+    <row r="482" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E482" s="6"/>
+      <c r="I482" s="6"/>
+    </row>
+    <row r="483" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E483" s="6"/>
+      <c r="I483" s="6"/>
+    </row>
+    <row r="484" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E484" s="6"/>
+      <c r="I484" s="6"/>
+    </row>
+    <row r="485" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E485" s="6"/>
+      <c r="I485" s="6"/>
+    </row>
+    <row r="486" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E486" s="6"/>
+      <c r="I486" s="6"/>
+    </row>
+    <row r="487" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E487" s="6"/>
+      <c r="I487" s="6"/>
+    </row>
+    <row r="488" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E488" s="6"/>
+      <c r="I488" s="6"/>
+    </row>
+    <row r="489" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E489" s="6"/>
+      <c r="I489" s="6"/>
+    </row>
+    <row r="490" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E490" s="6"/>
+      <c r="I490" s="6"/>
+    </row>
+    <row r="491" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E491" s="6"/>
+      <c r="I491" s="6"/>
+    </row>
+    <row r="492" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E492" s="6"/>
+      <c r="I492" s="6"/>
+    </row>
+    <row r="493" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E493" s="6"/>
+      <c r="I493" s="6"/>
+    </row>
+    <row r="494" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E494" s="6"/>
+      <c r="I494" s="6"/>
+    </row>
+    <row r="495" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E495" s="6"/>
+      <c r="I495" s="6"/>
+    </row>
+    <row r="496" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E496" s="6"/>
+      <c r="I496" s="6"/>
+    </row>
+    <row r="497" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E497" s="6"/>
+      <c r="I497" s="6"/>
+    </row>
+    <row r="498" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E498" s="6"/>
+      <c r="I498" s="6"/>
+    </row>
+    <row r="499" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E499" s="6"/>
+      <c r="I499" s="6"/>
+    </row>
+    <row r="500" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E500" s="6"/>
+      <c r="I500" s="6"/>
+    </row>
+    <row r="501" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E501" s="6"/>
+      <c r="I501" s="6"/>
+    </row>
+    <row r="502" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E502" s="6"/>
+      <c r="I502" s="6"/>
+    </row>
+    <row r="503" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E503" s="6"/>
+      <c r="I503" s="6"/>
+    </row>
+    <row r="504" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E504" s="6"/>
+      <c r="I504" s="6"/>
+    </row>
+    <row r="505" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E505" s="6"/>
+      <c r="I505" s="6"/>
+    </row>
+    <row r="506" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E506" s="6"/>
+      <c r="I506" s="6"/>
+    </row>
+    <row r="507" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E507" s="6"/>
+      <c r="I507" s="6"/>
+    </row>
+    <row r="508" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E508" s="6"/>
+      <c r="I508" s="6"/>
+    </row>
+    <row r="509" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E509" s="6"/>
+      <c r="I509" s="6"/>
+    </row>
+    <row r="510" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E510" s="6"/>
+      <c r="I510" s="6"/>
+    </row>
+    <row r="511" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E511" s="6"/>
+      <c r="I511" s="6"/>
+    </row>
+    <row r="512" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E512" s="6"/>
+      <c r="I512" s="6"/>
+    </row>
+    <row r="513" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E513" s="6"/>
+      <c r="I513" s="6"/>
+    </row>
+    <row r="514" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E514" s="6"/>
+      <c r="I514" s="6"/>
+    </row>
+    <row r="515" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E515" s="6"/>
+      <c r="I515" s="6"/>
+    </row>
+    <row r="516" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E516" s="6"/>
+      <c r="I516" s="6"/>
+    </row>
+    <row r="517" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E517" s="6"/>
+      <c r="I517" s="6"/>
+    </row>
+    <row r="518" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E518" s="6"/>
+      <c r="I518" s="6"/>
+    </row>
+    <row r="519" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E519" s="6"/>
+      <c r="I519" s="6"/>
+    </row>
+    <row r="520" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E520" s="6"/>
+      <c r="I520" s="6"/>
+    </row>
+    <row r="521" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E521" s="6"/>
+      <c r="I521" s="6"/>
+    </row>
+    <row r="522" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E522" s="6"/>
+      <c r="I522" s="6"/>
+    </row>
+    <row r="523" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E523" s="6"/>
+      <c r="I523" s="6"/>
+    </row>
+    <row r="524" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E524" s="6"/>
+      <c r="I524" s="6"/>
+    </row>
+    <row r="525" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E525" s="6"/>
+      <c r="I525" s="6"/>
+    </row>
+    <row r="526" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E526" s="6"/>
+      <c r="I526" s="6"/>
+    </row>
+    <row r="527" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E527" s="6"/>
+      <c r="I527" s="6"/>
+    </row>
+    <row r="528" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E528" s="6"/>
+      <c r="I528" s="6"/>
+    </row>
+    <row r="529" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E529" s="6"/>
+      <c r="I529" s="6"/>
+    </row>
+    <row r="530" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E530" s="6"/>
+      <c r="I530" s="6"/>
+    </row>
+    <row r="531" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E531" s="6"/>
+      <c r="I531" s="6"/>
+    </row>
+    <row r="532" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E532" s="6"/>
+      <c r="I532" s="6"/>
+    </row>
+    <row r="533" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E533" s="6"/>
+      <c r="I533" s="6"/>
+    </row>
+    <row r="534" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E534" s="6"/>
+      <c r="I534" s="6"/>
+    </row>
+    <row r="535" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E535" s="6"/>
+      <c r="I535" s="6"/>
+    </row>
+    <row r="536" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E536" s="6"/>
+      <c r="I536" s="6"/>
+    </row>
+    <row r="537" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E537" s="6"/>
+      <c r="I537" s="6"/>
+    </row>
+    <row r="538" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E538" s="6"/>
+      <c r="I538" s="6"/>
+    </row>
+    <row r="539" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E539" s="6"/>
+      <c r="I539" s="6"/>
+    </row>
+    <row r="540" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E540" s="6"/>
+      <c r="I540" s="6"/>
+    </row>
+    <row r="541" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E541" s="6"/>
+      <c r="I541" s="6"/>
+    </row>
+    <row r="542" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E542" s="6"/>
+      <c r="I542" s="6"/>
+    </row>
+    <row r="543" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E543" s="6"/>
+      <c r="I543" s="6"/>
+    </row>
+    <row r="544" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E544" s="6"/>
+      <c r="I544" s="6"/>
+    </row>
+    <row r="545" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E545" s="6"/>
+      <c r="I545" s="6"/>
+    </row>
+    <row r="546" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E546" s="6"/>
+      <c r="I546" s="6"/>
+    </row>
+    <row r="547" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E547" s="6"/>
+      <c r="I547" s="6"/>
+    </row>
+    <row r="548" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E548" s="6"/>
+      <c r="I548" s="6"/>
+    </row>
+    <row r="549" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E549" s="6"/>
+      <c r="I549" s="6"/>
+    </row>
+    <row r="550" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E550" s="6"/>
+      <c r="I550" s="6"/>
+    </row>
+    <row r="551" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E551" s="6"/>
+      <c r="I551" s="6"/>
+    </row>
+    <row r="552" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E552" s="6"/>
+      <c r="I552" s="6"/>
+    </row>
+    <row r="553" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E553" s="6"/>
+      <c r="I553" s="6"/>
+    </row>
+    <row r="554" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E554" s="6"/>
+      <c r="I554" s="6"/>
+    </row>
+    <row r="555" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E555" s="6"/>
+      <c r="I555" s="6"/>
+    </row>
+    <row r="556" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E556" s="6"/>
+      <c r="I556" s="6"/>
+    </row>
+    <row r="557" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E557" s="6"/>
+      <c r="I557" s="6"/>
+    </row>
+    <row r="558" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E558" s="6"/>
+      <c r="I558" s="6"/>
+    </row>
+    <row r="559" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E559" s="6"/>
+      <c r="I559" s="6"/>
+    </row>
+    <row r="560" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E560" s="6"/>
+      <c r="I560" s="6"/>
+    </row>
+    <row r="561" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E561" s="6"/>
+      <c r="I561" s="6"/>
+    </row>
+    <row r="562" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E562" s="6"/>
+      <c r="I562" s="6"/>
+    </row>
+    <row r="563" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E563" s="6"/>
+      <c r="I563" s="6"/>
+    </row>
+    <row r="564" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E564" s="6"/>
+      <c r="I564" s="6"/>
+    </row>
+    <row r="565" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E565" s="6"/>
+      <c r="I565" s="6"/>
+    </row>
+    <row r="566" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E566" s="6"/>
+      <c r="I566" s="6"/>
+    </row>
+    <row r="567" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E567" s="6"/>
+      <c r="I567" s="6"/>
+    </row>
+    <row r="568" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E568" s="6"/>
+      <c r="I568" s="6"/>
+    </row>
+    <row r="569" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E569" s="6"/>
+      <c r="I569" s="6"/>
+    </row>
+    <row r="570" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E570" s="6"/>
+      <c r="I570" s="6"/>
+    </row>
+    <row r="571" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E571" s="6"/>
+      <c r="I571" s="6"/>
+    </row>
+    <row r="572" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E572" s="6"/>
+      <c r="I572" s="6"/>
+    </row>
+    <row r="573" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E573" s="6"/>
+      <c r="I573" s="6"/>
+    </row>
+    <row r="574" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E574" s="6"/>
+      <c r="I574" s="6"/>
+    </row>
+    <row r="575" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E575" s="6"/>
+      <c r="I575" s="6"/>
+    </row>
+    <row r="576" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E576" s="6"/>
+      <c r="I576" s="6"/>
+    </row>
+    <row r="577" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E577" s="6"/>
+      <c r="I577" s="6"/>
+    </row>
+    <row r="578" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E578" s="6"/>
+      <c r="I578" s="6"/>
+    </row>
+    <row r="579" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E579" s="6"/>
+      <c r="I579" s="6"/>
+    </row>
+    <row r="580" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E580" s="6"/>
+      <c r="I580" s="6"/>
+    </row>
+    <row r="581" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E581" s="6"/>
+      <c r="I581" s="6"/>
+    </row>
+    <row r="582" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E582" s="6"/>
+      <c r="I582" s="6"/>
+    </row>
+    <row r="583" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E583" s="6"/>
+      <c r="I583" s="6"/>
+    </row>
+    <row r="584" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E584" s="6"/>
+      <c r="I584" s="6"/>
+    </row>
+    <row r="585" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E585" s="6"/>
+      <c r="I585" s="6"/>
+    </row>
+    <row r="586" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E586" s="6"/>
+      <c r="I586" s="6"/>
+    </row>
+    <row r="587" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E587" s="6"/>
+      <c r="I587" s="6"/>
+    </row>
+    <row r="588" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E588" s="6"/>
+      <c r="I588" s="6"/>
+    </row>
+    <row r="589" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E589" s="6"/>
+      <c r="I589" s="6"/>
+    </row>
+    <row r="590" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E590" s="6"/>
+      <c r="I590" s="6"/>
+    </row>
+    <row r="591" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E591" s="6"/>
+      <c r="I591" s="6"/>
+    </row>
+    <row r="592" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E592" s="6"/>
+      <c r="I592" s="6"/>
+    </row>
+    <row r="593" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E593" s="6"/>
+      <c r="I593" s="6"/>
+    </row>
+    <row r="594" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E594" s="6"/>
+      <c r="I594" s="6"/>
+    </row>
+    <row r="595" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E595" s="6"/>
+      <c r="I595" s="6"/>
+    </row>
+    <row r="596" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E596" s="6"/>
+      <c r="I596" s="6"/>
+    </row>
+    <row r="597" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E597" s="6"/>
+      <c r="I597" s="6"/>
+    </row>
+    <row r="598" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E598" s="6"/>
+      <c r="I598" s="6"/>
+    </row>
+    <row r="599" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E599" s="6"/>
+      <c r="I599" s="6"/>
+    </row>
+    <row r="600" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E600" s="6"/>
+      <c r="I600" s="6"/>
+    </row>
+    <row r="601" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E601" s="6"/>
+      <c r="I601" s="6"/>
+    </row>
+    <row r="602" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E602" s="6"/>
+      <c r="I602" s="6"/>
+    </row>
+    <row r="603" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E603" s="6"/>
+      <c r="I603" s="6"/>
+    </row>
+    <row r="604" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E604" s="6"/>
+      <c r="I604" s="6"/>
+    </row>
+    <row r="605" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E605" s="6"/>
+      <c r="I605" s="6"/>
+    </row>
+    <row r="606" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E606" s="6"/>
+      <c r="I606" s="6"/>
+    </row>
+    <row r="607" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E607" s="6"/>
+      <c r="I607" s="6"/>
+    </row>
+    <row r="608" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E608" s="6"/>
+      <c r="I608" s="6"/>
+    </row>
+    <row r="609" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E609" s="6"/>
+      <c r="I609" s="6"/>
+    </row>
+    <row r="610" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E610" s="6"/>
+      <c r="I610" s="6"/>
+    </row>
+    <row r="611" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E611" s="6"/>
+      <c r="I611" s="6"/>
+    </row>
+    <row r="612" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E612" s="6"/>
+      <c r="I612" s="6"/>
+    </row>
+    <row r="613" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E613" s="6"/>
+      <c r="I613" s="6"/>
+    </row>
+    <row r="614" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E614" s="6"/>
+      <c r="I614" s="6"/>
+    </row>
+    <row r="615" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E615" s="6"/>
+      <c r="I615" s="6"/>
+    </row>
+    <row r="616" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E616" s="6"/>
+      <c r="I616" s="6"/>
+    </row>
+    <row r="617" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E617" s="6"/>
+      <c r="I617" s="6"/>
+    </row>
+    <row r="618" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E618" s="6"/>
+      <c r="I618" s="6"/>
+    </row>
+    <row r="619" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E619" s="6"/>
+      <c r="I619" s="6"/>
+    </row>
+    <row r="620" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E620" s="6"/>
+      <c r="I620" s="6"/>
+    </row>
+    <row r="621" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E621" s="6"/>
+      <c r="I621" s="6"/>
+    </row>
+    <row r="622" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E622" s="6"/>
+      <c r="I622" s="6"/>
+    </row>
+    <row r="623" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E623" s="6"/>
+      <c r="I623" s="6"/>
+    </row>
+    <row r="624" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E624" s="6"/>
+      <c r="I624" s="6"/>
+    </row>
+    <row r="625" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E625" s="6"/>
+      <c r="I625" s="6"/>
+    </row>
+    <row r="626" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E626" s="6"/>
+      <c r="I626" s="6"/>
+    </row>
+    <row r="627" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E627" s="6"/>
+      <c r="I627" s="6"/>
+    </row>
+    <row r="628" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E628" s="6"/>
+      <c r="I628" s="6"/>
+    </row>
+    <row r="629" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E629" s="6"/>
+      <c r="I629" s="6"/>
+    </row>
+    <row r="630" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E630" s="6"/>
+      <c r="I630" s="6"/>
+    </row>
+    <row r="631" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E631" s="6"/>
+      <c r="I631" s="6"/>
+    </row>
+    <row r="632" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E632" s="6"/>
+      <c r="I632" s="6"/>
+    </row>
+    <row r="633" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E633" s="6"/>
+      <c r="I633" s="6"/>
+    </row>
+    <row r="634" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E634" s="6"/>
+      <c r="I634" s="6"/>
+    </row>
+    <row r="635" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E635" s="6"/>
+      <c r="I635" s="6"/>
+    </row>
+    <row r="636" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E636" s="6"/>
+      <c r="I636" s="6"/>
+    </row>
+    <row r="637" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E637" s="6"/>
+      <c r="I637" s="6"/>
+    </row>
+    <row r="638" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E638" s="6"/>
+      <c r="I638" s="6"/>
+    </row>
+    <row r="639" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E639" s="6"/>
+      <c r="I639" s="6"/>
+    </row>
+    <row r="640" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E640" s="6"/>
+      <c r="I640" s="6"/>
+    </row>
+    <row r="641" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E641" s="6"/>
+      <c r="I641" s="6"/>
+    </row>
+    <row r="642" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E642" s="6"/>
+      <c r="I642" s="6"/>
+    </row>
+    <row r="643" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E643" s="6"/>
+      <c r="I643" s="6"/>
+    </row>
+    <row r="644" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E644" s="6"/>
+      <c r="I644" s="6"/>
+    </row>
+    <row r="645" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E645" s="6"/>
+      <c r="I645" s="6"/>
+    </row>
+    <row r="646" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E646" s="6"/>
+      <c r="I646" s="6"/>
+    </row>
+    <row r="647" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E647" s="6"/>
+      <c r="I647" s="6"/>
+    </row>
+    <row r="648" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E648" s="6"/>
+      <c r="I648" s="6"/>
+    </row>
+    <row r="649" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E649" s="6"/>
+      <c r="I649" s="6"/>
+    </row>
+    <row r="650" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E650" s="6"/>
+      <c r="I650" s="6"/>
+    </row>
+    <row r="651" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E651" s="6"/>
+      <c r="I651" s="6"/>
+    </row>
+    <row r="652" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E652" s="6"/>
+      <c r="I652" s="6"/>
+    </row>
+    <row r="653" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E653" s="6"/>
+      <c r="I653" s="6"/>
+    </row>
+    <row r="654" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E654" s="6"/>
+      <c r="I654" s="6"/>
+    </row>
+    <row r="655" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E655" s="6"/>
+      <c r="I655" s="6"/>
+    </row>
+    <row r="656" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E656" s="6"/>
+      <c r="I656" s="6"/>
+    </row>
+    <row r="657" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E657" s="6"/>
+      <c r="I657" s="6"/>
+    </row>
+    <row r="658" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E658" s="6"/>
+      <c r="I658" s="6"/>
+    </row>
+    <row r="659" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E659" s="6"/>
+      <c r="I659" s="6"/>
+    </row>
+    <row r="660" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E660" s="6"/>
+      <c r="I660" s="6"/>
+    </row>
+    <row r="661" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E661" s="6"/>
+      <c r="I661" s="6"/>
+    </row>
+    <row r="662" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E662" s="6"/>
+      <c r="I662" s="6"/>
+    </row>
+    <row r="663" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E663" s="6"/>
+      <c r="I663" s="6"/>
+    </row>
+    <row r="664" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E664" s="6"/>
+      <c r="I664" s="6"/>
+    </row>
+    <row r="665" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E665" s="6"/>
+      <c r="I665" s="6"/>
+    </row>
+    <row r="666" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E666" s="6"/>
+      <c r="I666" s="6"/>
+    </row>
+    <row r="667" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E667" s="6"/>
+      <c r="I667" s="6"/>
+    </row>
+    <row r="668" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E668" s="6"/>
+      <c r="I668" s="6"/>
+    </row>
+    <row r="669" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E669" s="6"/>
+      <c r="I669" s="6"/>
+    </row>
+    <row r="670" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E670" s="6"/>
+      <c r="I670" s="6"/>
+    </row>
+    <row r="671" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E671" s="6"/>
+      <c r="I671" s="6"/>
+    </row>
+    <row r="672" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E672" s="6"/>
+      <c r="I672" s="6"/>
+    </row>
+    <row r="673" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E673" s="6"/>
+      <c r="I673" s="6"/>
+    </row>
+    <row r="674" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E674" s="6"/>
+      <c r="I674" s="6"/>
+    </row>
+    <row r="675" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E675" s="6"/>
+      <c r="I675" s="6"/>
+    </row>
+    <row r="676" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E676" s="6"/>
+      <c r="I676" s="6"/>
+    </row>
+    <row r="677" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E677" s="6"/>
+      <c r="I677" s="6"/>
+    </row>
+    <row r="678" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E678" s="6"/>
+      <c r="I678" s="6"/>
+    </row>
+    <row r="679" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E679" s="6"/>
+      <c r="I679" s="6"/>
+    </row>
+    <row r="680" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E680" s="6"/>
+      <c r="I680" s="6"/>
+    </row>
+    <row r="681" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E681" s="6"/>
+      <c r="I681" s="6"/>
+    </row>
+    <row r="682" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E682" s="6"/>
+      <c r="I682" s="6"/>
+    </row>
+    <row r="683" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E683" s="6"/>
+      <c r="I683" s="6"/>
+    </row>
+    <row r="684" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E684" s="6"/>
+      <c r="I684" s="6"/>
+    </row>
+    <row r="685" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E685" s="6"/>
+      <c r="I685" s="6"/>
+    </row>
+    <row r="686" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E686" s="6"/>
+      <c r="I686" s="6"/>
+    </row>
+    <row r="687" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E687" s="6"/>
+      <c r="I687" s="6"/>
+    </row>
+    <row r="688" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E688" s="6"/>
+      <c r="I688" s="6"/>
+    </row>
+    <row r="689" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E689" s="6"/>
+      <c r="I689" s="6"/>
+    </row>
+    <row r="690" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E690" s="6"/>
+      <c r="I690" s="6"/>
+    </row>
+    <row r="691" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E691" s="6"/>
+      <c r="I691" s="6"/>
+    </row>
+    <row r="692" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E692" s="6"/>
+      <c r="I692" s="6"/>
+    </row>
+    <row r="693" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E693" s="6"/>
+      <c r="I693" s="6"/>
+    </row>
+    <row r="694" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E694" s="6"/>
+      <c r="I694" s="6"/>
+    </row>
+    <row r="695" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E695" s="6"/>
+      <c r="I695" s="6"/>
+    </row>
+    <row r="696" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E696" s="6"/>
+      <c r="I696" s="6"/>
+    </row>
+    <row r="697" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E697" s="6"/>
+      <c r="I697" s="6"/>
+    </row>
+    <row r="698" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E698" s="6"/>
+      <c r="I698" s="6"/>
+    </row>
+    <row r="699" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E699" s="6"/>
+      <c r="I699" s="6"/>
+    </row>
+    <row r="700" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E700" s="6"/>
+      <c r="I700" s="6"/>
+    </row>
+    <row r="701" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E701" s="6"/>
+      <c r="I701" s="6"/>
+    </row>
+    <row r="702" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E702" s="6"/>
+      <c r="I702" s="6"/>
+    </row>
+    <row r="703" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E703" s="6"/>
+      <c r="I703" s="6"/>
+    </row>
+    <row r="704" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E704" s="6"/>
+      <c r="I704" s="6"/>
+    </row>
+    <row r="705" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E705" s="6"/>
+      <c r="I705" s="6"/>
+    </row>
+    <row r="706" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E706" s="6"/>
+      <c r="I706" s="6"/>
+    </row>
+    <row r="707" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E707" s="6"/>
+      <c r="I707" s="6"/>
+    </row>
+    <row r="708" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E708" s="6"/>
+      <c r="I708" s="6"/>
+    </row>
+    <row r="709" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E709" s="6"/>
+      <c r="I709" s="6"/>
+    </row>
+    <row r="710" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E710" s="6"/>
+      <c r="I710" s="6"/>
+    </row>
+    <row r="711" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E711" s="6"/>
+      <c r="I711" s="6"/>
+    </row>
+    <row r="712" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E712" s="6"/>
+      <c r="I712" s="6"/>
+    </row>
+    <row r="713" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E713" s="6"/>
+      <c r="I713" s="6"/>
+    </row>
+    <row r="714" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E714" s="6"/>
+      <c r="I714" s="6"/>
+    </row>
+    <row r="715" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E715" s="6"/>
+      <c r="I715" s="6"/>
+    </row>
+    <row r="716" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E716" s="6"/>
+      <c r="I716" s="6"/>
+    </row>
+    <row r="717" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E717" s="6"/>
+      <c r="I717" s="6"/>
+    </row>
+    <row r="718" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E718" s="6"/>
+      <c r="I718" s="6"/>
+    </row>
+    <row r="719" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E719" s="6"/>
+      <c r="I719" s="6"/>
+    </row>
+    <row r="720" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E720" s="6"/>
+      <c r="I720" s="6"/>
+    </row>
+    <row r="721" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E721" s="6"/>
+      <c r="I721" s="6"/>
+    </row>
+    <row r="722" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E722" s="6"/>
+      <c r="I722" s="6"/>
+    </row>
+    <row r="723" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E723" s="6"/>
+      <c r="I723" s="6"/>
+    </row>
+    <row r="724" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E724" s="6"/>
+      <c r="I724" s="6"/>
+    </row>
+    <row r="725" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E725" s="6"/>
+      <c r="I725" s="6"/>
+    </row>
+    <row r="726" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E726" s="6"/>
+      <c r="I726" s="6"/>
+    </row>
+    <row r="727" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E727" s="6"/>
+      <c r="I727" s="6"/>
+    </row>
+    <row r="728" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E728" s="6"/>
+      <c r="I728" s="6"/>
+    </row>
+    <row r="729" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E729" s="6"/>
+      <c r="I729" s="6"/>
+    </row>
+    <row r="730" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E730" s="6"/>
+      <c r="I730" s="6"/>
+    </row>
+    <row r="731" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E731" s="6"/>
+      <c r="I731" s="6"/>
+    </row>
+    <row r="732" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E732" s="6"/>
+      <c r="I732" s="6"/>
+    </row>
+    <row r="733" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E733" s="6"/>
+      <c r="I733" s="6"/>
+    </row>
+    <row r="734" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E734" s="6"/>
+      <c r="I734" s="6"/>
+    </row>
+    <row r="735" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E735" s="6"/>
+      <c r="I735" s="6"/>
+    </row>
+    <row r="736" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E736" s="6"/>
+      <c r="I736" s="6"/>
+    </row>
+    <row r="737" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E737" s="6"/>
+      <c r="I737" s="6"/>
+    </row>
+    <row r="738" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E738" s="6"/>
+      <c r="I738" s="6"/>
+    </row>
+    <row r="739" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E739" s="6"/>
+      <c r="I739" s="6"/>
+    </row>
+    <row r="740" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E740" s="6"/>
+      <c r="I740" s="6"/>
+    </row>
+    <row r="741" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E741" s="6"/>
+      <c r="I741" s="6"/>
+    </row>
+    <row r="742" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E742" s="6"/>
+      <c r="I742" s="6"/>
+    </row>
+    <row r="743" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E743" s="6"/>
+      <c r="I743" s="6"/>
+    </row>
+    <row r="744" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E744" s="6"/>
+      <c r="I744" s="6"/>
+    </row>
+    <row r="745" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E745" s="6"/>
+      <c r="I745" s="6"/>
+    </row>
+    <row r="746" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E746" s="6"/>
+      <c r="I746" s="6"/>
+    </row>
+    <row r="747" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E747" s="6"/>
+      <c r="I747" s="6"/>
+    </row>
+    <row r="748" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E748" s="6"/>
+      <c r="I748" s="6"/>
+    </row>
+    <row r="749" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E749" s="6"/>
+      <c r="I749" s="6"/>
+    </row>
+    <row r="750" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E750" s="6"/>
+      <c r="I750" s="6"/>
+    </row>
+    <row r="751" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E751" s="6"/>
+      <c r="I751" s="6"/>
+    </row>
+    <row r="752" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E752" s="6"/>
+      <c r="I752" s="6"/>
+    </row>
+    <row r="753" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E753" s="6"/>
+      <c r="I753" s="6"/>
+    </row>
+    <row r="754" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E754" s="6"/>
+      <c r="I754" s="6"/>
+    </row>
+    <row r="755" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E755" s="6"/>
+      <c r="I755" s="6"/>
+    </row>
+    <row r="756" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E756" s="6"/>
+      <c r="I756" s="6"/>
+    </row>
+    <row r="757" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E757" s="6"/>
+      <c r="I757" s="6"/>
+    </row>
+    <row r="758" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E758" s="6"/>
+      <c r="I758" s="6"/>
+    </row>
+    <row r="759" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E759" s="6"/>
+      <c r="I759" s="6"/>
+    </row>
+    <row r="760" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E760" s="6"/>
+      <c r="I760" s="6"/>
+    </row>
+    <row r="761" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E761" s="6"/>
+      <c r="I761" s="6"/>
+    </row>
+    <row r="762" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E762" s="6"/>
+      <c r="I762" s="6"/>
+    </row>
+    <row r="763" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E763" s="6"/>
+      <c r="I763" s="6"/>
+    </row>
+    <row r="764" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E764" s="6"/>
+      <c r="I764" s="6"/>
+    </row>
+    <row r="765" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E765" s="6"/>
+      <c r="I765" s="6"/>
+    </row>
+    <row r="766" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E766" s="6"/>
+      <c r="I766" s="6"/>
+    </row>
+    <row r="767" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E767" s="6"/>
+      <c r="I767" s="6"/>
+    </row>
+    <row r="768" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E768" s="6"/>
+      <c r="I768" s="6"/>
+    </row>
+    <row r="769" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E769" s="6"/>
+      <c r="I769" s="6"/>
+    </row>
+    <row r="770" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E770" s="6"/>
+      <c r="I770" s="6"/>
+    </row>
+    <row r="771" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E771" s="6"/>
+      <c r="I771" s="6"/>
+    </row>
+    <row r="772" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E772" s="6"/>
+      <c r="I772" s="6"/>
+    </row>
+    <row r="773" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E773" s="6"/>
+      <c r="I773" s="6"/>
+    </row>
+    <row r="774" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E774" s="6"/>
+      <c r="I774" s="6"/>
+    </row>
+    <row r="775" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E775" s="6"/>
+      <c r="I775" s="6"/>
+    </row>
+    <row r="776" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E776" s="6"/>
+      <c r="I776" s="6"/>
+    </row>
+    <row r="777" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E777" s="6"/>
+      <c r="I777" s="6"/>
+    </row>
+    <row r="778" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E778" s="6"/>
+      <c r="I778" s="6"/>
+    </row>
+    <row r="779" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E779" s="6"/>
+      <c r="I779" s="6"/>
+    </row>
+    <row r="780" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E780" s="6"/>
+      <c r="I780" s="6"/>
+    </row>
+    <row r="781" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E781" s="6"/>
+      <c r="I781" s="6"/>
+    </row>
+    <row r="782" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E782" s="6"/>
+      <c r="I782" s="6"/>
+    </row>
+    <row r="783" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E783" s="6"/>
+      <c r="I783" s="6"/>
+    </row>
+    <row r="784" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E784" s="6"/>
+      <c r="I784" s="6"/>
+    </row>
+    <row r="785" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E785" s="6"/>
+      <c r="I785" s="6"/>
+    </row>
+    <row r="786" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E786" s="6"/>
+      <c r="I786" s="6"/>
+    </row>
+    <row r="787" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E787" s="6"/>
+      <c r="I787" s="6"/>
+    </row>
+    <row r="788" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E788" s="6"/>
+      <c r="I788" s="6"/>
+    </row>
+    <row r="789" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E789" s="6"/>
+      <c r="I789" s="6"/>
+    </row>
+    <row r="790" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E790" s="6"/>
+      <c r="I790" s="6"/>
+    </row>
+    <row r="791" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E791" s="6"/>
+      <c r="I791" s="6"/>
+    </row>
+    <row r="792" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E792" s="6"/>
+      <c r="I792" s="6"/>
+    </row>
+    <row r="793" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E793" s="6"/>
+      <c r="I793" s="6"/>
+    </row>
+    <row r="794" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E794" s="6"/>
+      <c r="I794" s="6"/>
+    </row>
+    <row r="795" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E795" s="6"/>
+      <c r="I795" s="6"/>
+    </row>
+    <row r="796" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E796" s="6"/>
+      <c r="I796" s="6"/>
+    </row>
+    <row r="797" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E797" s="6"/>
+      <c r="I797" s="6"/>
+    </row>
+    <row r="798" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E798" s="6"/>
+      <c r="I798" s="6"/>
+    </row>
+    <row r="799" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E799" s="6"/>
+      <c r="I799" s="6"/>
+    </row>
+    <row r="800" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E800" s="6"/>
+      <c r="I800" s="6"/>
+    </row>
+    <row r="801" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E801" s="6"/>
+      <c r="I801" s="6"/>
+    </row>
+    <row r="802" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E802" s="6"/>
+      <c r="I802" s="6"/>
+    </row>
+    <row r="803" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E803" s="6"/>
+      <c r="I803" s="6"/>
+    </row>
+    <row r="804" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E804" s="6"/>
+      <c r="I804" s="6"/>
+    </row>
+    <row r="805" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E805" s="6"/>
+      <c r="I805" s="6"/>
+    </row>
+    <row r="806" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E806" s="6"/>
+      <c r="I806" s="6"/>
+    </row>
+    <row r="807" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E807" s="6"/>
+      <c r="I807" s="6"/>
+    </row>
+    <row r="808" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E808" s="6"/>
+      <c r="I808" s="6"/>
+    </row>
+    <row r="809" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E809" s="6"/>
+      <c r="I809" s="6"/>
+    </row>
+    <row r="810" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E810" s="6"/>
+      <c r="I810" s="6"/>
+    </row>
+    <row r="811" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E811" s="6"/>
+      <c r="I811" s="6"/>
+    </row>
+    <row r="812" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E812" s="6"/>
+      <c r="I812" s="6"/>
+    </row>
+    <row r="813" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E813" s="6"/>
+      <c r="I813" s="6"/>
+    </row>
+    <row r="814" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E814" s="6"/>
+      <c r="I814" s="6"/>
+    </row>
+    <row r="815" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E815" s="6"/>
+      <c r="I815" s="6"/>
+    </row>
+    <row r="816" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E816" s="6"/>
+      <c r="I816" s="6"/>
+    </row>
+    <row r="817" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E817" s="6"/>
+      <c r="I817" s="6"/>
+    </row>
+    <row r="818" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E818" s="6"/>
+      <c r="I818" s="6"/>
+    </row>
+    <row r="819" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E819" s="6"/>
+      <c r="I819" s="6"/>
+    </row>
+    <row r="820" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E820" s="6"/>
+      <c r="I820" s="6"/>
+    </row>
+    <row r="821" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E821" s="6"/>
+      <c r="I821" s="6"/>
+    </row>
+    <row r="822" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E822" s="6"/>
+      <c r="I822" s="6"/>
+    </row>
+    <row r="823" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E823" s="6"/>
+      <c r="I823" s="6"/>
+    </row>
+    <row r="824" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E824" s="6"/>
+      <c r="I824" s="6"/>
+    </row>
+    <row r="825" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E825" s="6"/>
+      <c r="I825" s="6"/>
+    </row>
+    <row r="826" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E826" s="6"/>
+      <c r="I826" s="6"/>
+    </row>
+    <row r="827" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E827" s="6"/>
+      <c r="I827" s="6"/>
+    </row>
+    <row r="828" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E828" s="6"/>
+      <c r="I828" s="6"/>
+    </row>
+    <row r="829" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E829" s="6"/>
+      <c r="I829" s="6"/>
+    </row>
+    <row r="830" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E830" s="6"/>
+      <c r="I830" s="6"/>
+    </row>
+    <row r="831" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E831" s="6"/>
+      <c r="I831" s="6"/>
+    </row>
+    <row r="832" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E832" s="6"/>
+      <c r="I832" s="6"/>
+    </row>
+    <row r="833" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E833" s="6"/>
+      <c r="I833" s="6"/>
+    </row>
+    <row r="834" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E834" s="6"/>
+      <c r="I834" s="6"/>
+    </row>
+    <row r="835" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E835" s="6"/>
+      <c r="I835" s="6"/>
+    </row>
+    <row r="836" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E836" s="6"/>
+      <c r="I836" s="6"/>
+    </row>
+    <row r="837" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E837" s="6"/>
+      <c r="I837" s="6"/>
+    </row>
+    <row r="838" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E838" s="6"/>
+      <c r="I838" s="6"/>
+    </row>
+    <row r="839" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E839" s="6"/>
+      <c r="I839" s="6"/>
+    </row>
+    <row r="840" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E840" s="6"/>
+      <c r="I840" s="6"/>
+    </row>
+    <row r="841" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E841" s="6"/>
+      <c r="I841" s="6"/>
+    </row>
+    <row r="842" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E842" s="6"/>
+      <c r="I842" s="6"/>
+    </row>
+    <row r="843" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E843" s="6"/>
+      <c r="I843" s="6"/>
+    </row>
+    <row r="844" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E844" s="6"/>
+      <c r="I844" s="6"/>
+    </row>
+    <row r="845" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E845" s="6"/>
+      <c r="I845" s="6"/>
+    </row>
+    <row r="846" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E846" s="6"/>
+      <c r="I846" s="6"/>
+    </row>
+    <row r="847" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E847" s="6"/>
+      <c r="I847" s="6"/>
+    </row>
+    <row r="848" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E848" s="6"/>
+      <c r="I848" s="6"/>
+    </row>
+    <row r="849" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E849" s="6"/>
+      <c r="I849" s="6"/>
+    </row>
+    <row r="850" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E850" s="6"/>
+      <c r="I850" s="6"/>
+    </row>
+    <row r="851" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E851" s="6"/>
+      <c r="I851" s="6"/>
+    </row>
+    <row r="852" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E852" s="6"/>
+      <c r="I852" s="6"/>
+    </row>
+    <row r="853" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E853" s="6"/>
+      <c r="I853" s="6"/>
+    </row>
+    <row r="854" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E854" s="6"/>
+      <c r="I854" s="6"/>
+    </row>
+    <row r="855" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E855" s="6"/>
+      <c r="I855" s="6"/>
+    </row>
+    <row r="856" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E856" s="6"/>
+      <c r="I856" s="6"/>
+    </row>
+    <row r="857" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E857" s="6"/>
+      <c r="I857" s="6"/>
+    </row>
+    <row r="858" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E858" s="6"/>
+      <c r="I858" s="6"/>
+    </row>
+    <row r="859" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E859" s="6"/>
+      <c r="I859" s="6"/>
+    </row>
+    <row r="860" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E860" s="6"/>
+      <c r="I860" s="6"/>
+    </row>
+    <row r="861" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E861" s="6"/>
+      <c r="I861" s="6"/>
+    </row>
+    <row r="862" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E862" s="6"/>
+      <c r="I862" s="6"/>
+    </row>
+    <row r="863" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E863" s="6"/>
+      <c r="I863" s="6"/>
+    </row>
+    <row r="864" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E864" s="6"/>
+      <c r="I864" s="6"/>
+    </row>
+    <row r="865" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E865" s="6"/>
+      <c r="I865" s="6"/>
+    </row>
+    <row r="866" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E866" s="6"/>
+      <c r="I866" s="6"/>
+    </row>
+    <row r="867" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E867" s="6"/>
+      <c r="I867" s="6"/>
+    </row>
+    <row r="868" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E868" s="6"/>
+      <c r="I868" s="6"/>
+    </row>
+    <row r="869" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E869" s="6"/>
+      <c r="I869" s="6"/>
+    </row>
+    <row r="870" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E870" s="6"/>
+      <c r="I870" s="6"/>
+    </row>
+    <row r="871" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E871" s="6"/>
+      <c r="I871" s="6"/>
+    </row>
+    <row r="872" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E872" s="6"/>
+      <c r="I872" s="6"/>
+    </row>
+    <row r="873" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E873" s="6"/>
+      <c r="I873" s="6"/>
+    </row>
+    <row r="874" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E874" s="6"/>
+      <c r="I874" s="6"/>
+    </row>
+    <row r="875" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E875" s="6"/>
+      <c r="I875" s="6"/>
+    </row>
+    <row r="876" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E876" s="6"/>
+      <c r="I876" s="6"/>
+    </row>
+    <row r="877" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E877" s="6"/>
+      <c r="I877" s="6"/>
+    </row>
+    <row r="878" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E878" s="6"/>
+      <c r="I878" s="6"/>
+    </row>
+    <row r="879" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E879" s="6"/>
+      <c r="I879" s="6"/>
+    </row>
+    <row r="880" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E880" s="6"/>
+      <c r="I880" s="6"/>
+    </row>
+    <row r="881" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E881" s="6"/>
+      <c r="I881" s="6"/>
+    </row>
+    <row r="882" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E882" s="6"/>
+      <c r="I882" s="6"/>
+    </row>
+    <row r="883" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E883" s="6"/>
+      <c r="I883" s="6"/>
+    </row>
+    <row r="884" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E884" s="6"/>
+      <c r="I884" s="6"/>
+    </row>
+    <row r="885" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E885" s="6"/>
+      <c r="I885" s="6"/>
+    </row>
+    <row r="886" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E886" s="6"/>
+      <c r="I886" s="6"/>
+    </row>
+    <row r="887" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E887" s="6"/>
+      <c r="I887" s="6"/>
+    </row>
+    <row r="888" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E888" s="6"/>
+      <c r="I888" s="6"/>
+    </row>
+    <row r="889" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E889" s="6"/>
+      <c r="I889" s="6"/>
+    </row>
+    <row r="890" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E890" s="6"/>
+      <c r="I890" s="6"/>
+    </row>
+    <row r="891" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E891" s="6"/>
+      <c r="I891" s="6"/>
+    </row>
+    <row r="892" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E892" s="6"/>
+      <c r="I892" s="6"/>
+    </row>
+    <row r="893" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E893" s="6"/>
+      <c r="I893" s="6"/>
+    </row>
+    <row r="894" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E894" s="6"/>
+      <c r="I894" s="6"/>
+    </row>
+    <row r="895" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E895" s="6"/>
+      <c r="I895" s="6"/>
+    </row>
+    <row r="896" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E896" s="6"/>
+      <c r="I896" s="6"/>
+    </row>
+    <row r="897" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E897" s="6"/>
+      <c r="I897" s="6"/>
+    </row>
+    <row r="898" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E898" s="6"/>
+      <c r="I898" s="6"/>
+    </row>
+    <row r="899" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E899" s="6"/>
+      <c r="I899" s="6"/>
+    </row>
+    <row r="900" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E900" s="6"/>
+      <c r="I900" s="6"/>
+    </row>
+    <row r="901" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E901" s="6"/>
+      <c r="I901" s="6"/>
+    </row>
+    <row r="902" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E902" s="6"/>
+      <c r="I902" s="6"/>
+    </row>
+    <row r="903" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E903" s="6"/>
+      <c r="I903" s="6"/>
+    </row>
+    <row r="904" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E904" s="6"/>
+      <c r="I904" s="6"/>
+    </row>
+    <row r="905" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E905" s="6"/>
+      <c r="I905" s="6"/>
+    </row>
+    <row r="906" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E906" s="6"/>
+      <c r="I906" s="6"/>
+    </row>
+    <row r="907" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E907" s="6"/>
+      <c r="I907" s="6"/>
+    </row>
+    <row r="908" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E908" s="6"/>
+      <c r="I908" s="6"/>
+    </row>
+    <row r="909" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E909" s="6"/>
+      <c r="I909" s="6"/>
+    </row>
+    <row r="910" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E910" s="6"/>
+      <c r="I910" s="6"/>
+    </row>
+    <row r="911" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E911" s="6"/>
+      <c r="I911" s="6"/>
+    </row>
+    <row r="912" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E912" s="6"/>
+      <c r="I912" s="6"/>
+    </row>
+    <row r="913" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E913" s="6"/>
+      <c r="I913" s="6"/>
+    </row>
+    <row r="914" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E914" s="6"/>
+      <c r="I914" s="6"/>
+    </row>
+    <row r="915" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E915" s="6"/>
+      <c r="I915" s="6"/>
+    </row>
+    <row r="916" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E916" s="6"/>
+      <c r="I916" s="6"/>
+    </row>
+    <row r="917" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E917" s="6"/>
+      <c r="I917" s="6"/>
+    </row>
+    <row r="918" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E918" s="6"/>
+      <c r="I918" s="6"/>
+    </row>
+    <row r="919" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E919" s="6"/>
+      <c r="I919" s="6"/>
+    </row>
+    <row r="920" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E920" s="6"/>
+      <c r="I920" s="6"/>
+    </row>
+    <row r="921" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E921" s="6"/>
+      <c r="I921" s="6"/>
+    </row>
+    <row r="922" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E922" s="6"/>
+      <c r="I922" s="6"/>
+    </row>
+    <row r="923" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E923" s="6"/>
+      <c r="I923" s="6"/>
+    </row>
+    <row r="924" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E924" s="6"/>
+      <c r="I924" s="6"/>
+    </row>
+    <row r="925" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E925" s="6"/>
+      <c r="I925" s="6"/>
+    </row>
+    <row r="926" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E926" s="6"/>
+      <c r="I926" s="6"/>
+    </row>
+    <row r="927" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E927" s="6"/>
+      <c r="I927" s="6"/>
+    </row>
+    <row r="928" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E928" s="6"/>
+      <c r="I928" s="6"/>
+    </row>
+    <row r="929" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E929" s="6"/>
+      <c r="I929" s="6"/>
+    </row>
+    <row r="930" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E930" s="6"/>
+      <c r="I930" s="6"/>
+    </row>
+    <row r="931" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E931" s="6"/>
+      <c r="I931" s="6"/>
+    </row>
+    <row r="932" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E932" s="6"/>
+      <c r="I932" s="6"/>
+    </row>
+    <row r="933" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E933" s="6"/>
+      <c r="I933" s="6"/>
+    </row>
+    <row r="934" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E934" s="6"/>
+      <c r="I934" s="6"/>
+    </row>
+    <row r="935" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E935" s="6"/>
+      <c r="I935" s="6"/>
+    </row>
+    <row r="936" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E936" s="6"/>
+      <c r="I936" s="6"/>
+    </row>
+    <row r="937" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E937" s="6"/>
+      <c r="I937" s="6"/>
+    </row>
+    <row r="938" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E938" s="6"/>
+      <c r="I938" s="6"/>
+    </row>
+    <row r="939" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E939" s="6"/>
+      <c r="I939" s="6"/>
+    </row>
+    <row r="940" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E940" s="6"/>
+      <c r="I940" s="6"/>
+    </row>
+    <row r="941" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E941" s="6"/>
+      <c r="I941" s="6"/>
+    </row>
+    <row r="942" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E942" s="6"/>
+      <c r="I942" s="6"/>
+    </row>
+    <row r="943" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E943" s="6"/>
+      <c r="I943" s="6"/>
+    </row>
+    <row r="944" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E944" s="6"/>
+      <c r="I944" s="6"/>
+    </row>
+    <row r="945" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E945" s="6"/>
+      <c r="I945" s="6"/>
+    </row>
+    <row r="946" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E946" s="6"/>
+      <c r="I946" s="6"/>
+    </row>
+    <row r="947" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E947" s="6"/>
+      <c r="I947" s="6"/>
+    </row>
+    <row r="948" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E948" s="6"/>
+      <c r="I948" s="6"/>
+    </row>
+    <row r="949" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E949" s="6"/>
+      <c r="I949" s="6"/>
+    </row>
+    <row r="950" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E950" s="6"/>
+      <c r="I950" s="6"/>
+    </row>
+    <row r="951" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E951" s="6"/>
+      <c r="I951" s="6"/>
+    </row>
+    <row r="952" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E952" s="6"/>
+      <c r="I952" s="6"/>
+    </row>
+    <row r="953" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E953" s="6"/>
+      <c r="I953" s="6"/>
+    </row>
+    <row r="954" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E954" s="6"/>
+      <c r="I954" s="6"/>
+    </row>
+    <row r="955" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E955" s="6"/>
+      <c r="I955" s="6"/>
+    </row>
+    <row r="956" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E956" s="6"/>
+      <c r="I956" s="6"/>
+    </row>
+    <row r="957" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E957" s="6"/>
+      <c r="I957" s="6"/>
+    </row>
+    <row r="958" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E958" s="6"/>
+      <c r="I958" s="6"/>
+    </row>
+    <row r="959" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E959" s="6"/>
+      <c r="I959" s="6"/>
+    </row>
+    <row r="960" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E960" s="6"/>
+      <c r="I960" s="6"/>
+    </row>
+    <row r="961" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E961" s="6"/>
+      <c r="I961" s="6"/>
+    </row>
+    <row r="962" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E962" s="6"/>
+      <c r="I962" s="6"/>
+    </row>
+    <row r="963" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E963" s="6"/>
+      <c r="I963" s="6"/>
+    </row>
+    <row r="964" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E964" s="6"/>
+      <c r="I964" s="6"/>
+    </row>
+    <row r="965" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E965" s="6"/>
+      <c r="I965" s="6"/>
+    </row>
+    <row r="966" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E966" s="6"/>
+      <c r="I966" s="6"/>
+    </row>
+    <row r="967" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E967" s="6"/>
+      <c r="I967" s="6"/>
+    </row>
+    <row r="968" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E968" s="6"/>
+      <c r="I968" s="6"/>
+    </row>
+    <row r="969" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E969" s="6"/>
+      <c r="I969" s="6"/>
+    </row>
+    <row r="970" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E970" s="6"/>
+      <c r="I970" s="6"/>
+    </row>
+    <row r="971" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E971" s="6"/>
+      <c r="I971" s="6"/>
+    </row>
+    <row r="972" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E972" s="6"/>
+      <c r="I972" s="6"/>
+    </row>
+    <row r="973" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E973" s="6"/>
+      <c r="I973" s="6"/>
+    </row>
+    <row r="974" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E974" s="6"/>
+      <c r="I974" s="6"/>
+    </row>
+    <row r="975" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E975" s="6"/>
+      <c r="I975" s="6"/>
+    </row>
+    <row r="976" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E976" s="6"/>
+      <c r="I976" s="6"/>
+    </row>
+    <row r="977" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E977" s="6"/>
+      <c r="I977" s="6"/>
+    </row>
+    <row r="978" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E978" s="6"/>
+      <c r="I978" s="6"/>
+    </row>
+    <row r="979" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E979" s="6"/>
+      <c r="I979" s="6"/>
+    </row>
+    <row r="980" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E980" s="6"/>
+      <c r="I980" s="6"/>
+    </row>
+    <row r="981" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E981" s="6"/>
+      <c r="I981" s="6"/>
+    </row>
+    <row r="982" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E982" s="6"/>
+      <c r="I982" s="6"/>
+    </row>
+    <row r="983" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E983" s="6"/>
+      <c r="I983" s="6"/>
+    </row>
+    <row r="984" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E984" s="6"/>
+      <c r="I984" s="6"/>
+    </row>
+    <row r="985" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E985" s="6"/>
+      <c r="I985" s="6"/>
+    </row>
+    <row r="986" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E986" s="6"/>
+      <c r="I986" s="6"/>
+    </row>
+    <row r="987" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E987" s="6"/>
+      <c r="I987" s="6"/>
+    </row>
+    <row r="988" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E988" s="6"/>
+      <c r="I988" s="6"/>
+    </row>
+    <row r="989" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E989" s="6"/>
+      <c r="I989" s="6"/>
+    </row>
+    <row r="990" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E990" s="6"/>
+      <c r="I990" s="6"/>
+    </row>
+    <row r="991" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E991" s="6"/>
+      <c r="I991" s="6"/>
+    </row>
+    <row r="992" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E992" s="6"/>
+      <c r="I992" s="6"/>
+    </row>
+    <row r="993" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E993" s="6"/>
+      <c r="I993" s="6"/>
+    </row>
+    <row r="994" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E994" s="6"/>
+      <c r="I994" s="6"/>
+    </row>
+    <row r="995" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E995" s="6"/>
+      <c r="I995" s="6"/>
+    </row>
+    <row r="996" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E996" s="6"/>
+      <c r="I996" s="6"/>
+    </row>
+    <row r="997" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E997" s="6"/>
+      <c r="I997" s="6"/>
+    </row>
+    <row r="998" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E998" s="6"/>
+      <c r="I998" s="6"/>
+    </row>
+    <row r="999" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E999" s="6"/>
+      <c r="I999" s="6"/>
+    </row>
+    <row r="1000" spans="5:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E1000" s="6"/>
+      <c r="I1000" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB215" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="NO_ORTHO"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="9">
-      <filters>
-        <filter val="not found"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AB215" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <customSheetViews>
     <customSheetView guid="{4A57A53C-7BDD-49EC-99B6-8EF5B4AFA116}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
